--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\CRUX\Models\eps-1.4.2-india-v2WIP\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="96" windowWidth="19416" windowHeight="11016" tabRatio="742"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19410" windowHeight="11010" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -224,10 +224,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -906,19 +906,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1105,14 +1105,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1660,12 +1660,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="107.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1772,9 +1772,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1834,11 +1834,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -1973,46 +1975,50 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="15">
-        <v>1.849302086624257E-4</v>
+        <f t="shared" ref="W2:Y2" si="0">X2</f>
+        <v>4.9119801594262394E-4</v>
       </c>
       <c r="X2" s="15">
-        <v>1.849302086624257E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.9119801594262394E-4</v>
       </c>
       <c r="Y2" s="15">
-        <v>1.849302086624257E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.9119801594262394E-4</v>
       </c>
       <c r="Z2" s="15">
-        <v>1.849302086624257E-4</v>
+        <f>AA2</f>
+        <v>4.9119801594262394E-4</v>
       </c>
       <c r="AA2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>4.9119801594262394E-4</v>
       </c>
       <c r="AB2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.0511428275483439E-4</v>
       </c>
       <c r="AC2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.190305495670483E-4</v>
       </c>
       <c r="AD2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.3294681637925615E-4</v>
       </c>
       <c r="AE2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.4451774418407374E-4</v>
       </c>
       <c r="AF2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.5251511408136334E-4</v>
       </c>
       <c r="AG2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.525151140813641E-4</v>
       </c>
       <c r="AH2" s="15">
-        <v>1.849302086624257E-4</v>
+        <v>5.5888200820865958E-4</v>
       </c>
       <c r="AI2" s="15">
-        <v>1.849302086624257E-4</v>
-      </c>
-      <c r="AJ2" s="16">
-        <v>1.849302086624257E-4</v>
+        <v>5.6524890233595679E-4</v>
+      </c>
+      <c r="AJ2" s="15">
+        <v>5.71615796463254E-4</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2043,46 +2049,46 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="X3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH3" s="15">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI3" s="15">
-        <v>1.689503624731988E-4</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>3.4165027849915303E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2959,14 +2965,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3392,14 +3398,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3428,23 +3434,23 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B19</f>
-        <v>5.8885671705667122E-4</v>
+        <v>1.6736156867293993E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C19</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.2559831484063789E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W2:AJ2)*'Calibration Adjustments'!D19</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.2559831484063789E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E19</f>
-        <v>1.849302086624257E-4</v>
+        <v>5.2559831484063789E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F19</f>
-        <v>4.0708978827926073E-4</v>
+        <v>1.1570078693794567E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3592,14 +3598,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3628,23 +3634,23 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B28</f>
-        <v>5.3797352261202762E-4</v>
+        <v>1.0878864131157243E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C28</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W3:AJ3)*'Calibration Adjustments'!D28</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E28</f>
-        <v>1.689503624731988E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F28</f>
-        <v>3.7191310054955466E-4</v>
+        <v>7.520801525382673E-4</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\CRUX\Models\eps-1.4.2-india-v2WIP\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614C1F3-7847-437A-93C8-86FB38F1E634}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19410" windowHeight="11010" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,12 +37,20 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>Sources:</t>
   </si>
@@ -67,9 +76,6 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>aircraft</t>
   </si>
   <si>
@@ -215,19 +221,31 @@
   </si>
   <si>
     <t>trans/BHNVFEAL.</t>
+  </si>
+  <si>
+    <t>Fuel Economy (passenger*miles/BTU)</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Fuel Economy (freight ton*miles/BTU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -892,33 +910,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1050,7 +1068,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1096,7 +1114,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1105,14 +1123,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1121,161 +1139,165 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,6 +1469,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1482,6 +1521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1657,10 +1713,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1670,7 +1726,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1678,12 +1734,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1691,12 +1747,12 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1711,53 +1767,53 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1767,10 +1823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1779,27 +1837,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
         <v>0.68595041322314043</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>0.68881036513545346</v>
@@ -1807,22 +1865,22 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1831,11 +1889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1843,7 +1901,7 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:71">
       <c r="C1">
         <v>1982</v>
       </c>
@@ -1947,12 +2005,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:71">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1975,58 +2033,159 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="15">
-        <f t="shared" ref="W2:Y2" si="0">X2</f>
-        <v>4.9119801594262394E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="X2" s="15">
-        <f t="shared" si="0"/>
-        <v>4.9119801594262394E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="Y2" s="15">
-        <f t="shared" si="0"/>
-        <v>4.9119801594262394E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="Z2" s="15">
-        <f>AA2</f>
-        <v>4.9119801594262394E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AA2" s="15">
-        <v>4.9119801594262394E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AB2" s="15">
-        <v>5.0511428275483439E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AC2" s="15">
-        <v>5.190305495670483E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AD2" s="15">
-        <v>5.3294681637925615E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AE2" s="15">
-        <v>5.4451774418407374E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AF2" s="15">
-        <v>5.5251511408136334E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AG2" s="15">
-        <v>5.525151140813641E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AH2" s="15">
-        <v>5.5888200820865958E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AI2" s="15">
-        <v>5.6524890233595679E-4</v>
+        <v>1.2113409683035476E-3</v>
       </c>
       <c r="AJ2" s="15">
-        <v>5.71615796463254E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>1.2113409683035476E-3</v>
+      </c>
+      <c r="AK2">
+        <v>1.2113409683035476E-3</v>
+      </c>
+      <c r="AL2">
+        <v>1.2113409683035476E-3</v>
+      </c>
+      <c r="AM2">
+        <v>1.2477387925424188E-3</v>
+      </c>
+      <c r="AN2">
+        <v>1.284136616781284E-3</v>
+      </c>
+      <c r="AO2">
+        <v>1.3205344410201492E-3</v>
+      </c>
+      <c r="AP2">
+        <v>1.3569322652590143E-3</v>
+      </c>
+      <c r="AQ2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AR2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AS2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AT2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AU2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AV2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AW2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AX2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AY2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="AZ2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BA2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BB2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BC2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BD2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BE2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BF2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BG2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BH2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BI2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BJ2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BK2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BL2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BM2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BN2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BO2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BP2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BQ2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BR2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+      <c r="BS2">
+        <v>1.3933300894978799E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2090,13 +2249,118 @@
       <c r="AJ3" s="15">
         <v>3.4165027849915303E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AL3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AM3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AN3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AO3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AP3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AQ3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AR3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AS3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AT3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AU3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AV3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AW3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AX3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AY3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="AZ3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BA3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BB3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BC3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BD3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BE3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BF3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BG3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BH3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BI3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BJ3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BK3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BL3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BM3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BN3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BO3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BP3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BQ3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BR3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+      <c r="BS3">
+        <v>3.4165027849915303E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2152,13 +2416,118 @@
       <c r="AJ4" s="16">
         <v>4.4435571578869126E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>4.4435571578869126E-3</v>
+      </c>
+      <c r="AL4">
+        <v>4.4435571578869126E-3</v>
+      </c>
+      <c r="AM4">
+        <v>4.4435571578869126E-3</v>
+      </c>
+      <c r="AN4">
+        <v>4.4435571578869126E-3</v>
+      </c>
+      <c r="AO4">
+        <v>4.7193641538936237E-3</v>
+      </c>
+      <c r="AP4">
+        <v>4.9951711499004459E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AR4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AS4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AT4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AU4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AV4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AW4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AX4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AY4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="AZ4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BA4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BB4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BC4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BD4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BE4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BF4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BG4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BH4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BI4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BJ4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BK4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BL4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BM4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BN4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BO4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BP4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BQ4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BR4">
+        <v>5.270978145907157E-3</v>
+      </c>
+      <c r="BS4">
+        <v>5.270978145907157E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2214,13 +2583,118 @@
       <c r="AJ5" s="16">
         <v>4.5132431462293482E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>4.5132431462293482E-4</v>
+      </c>
+      <c r="AL5">
+        <v>4.5132431462293482E-4</v>
+      </c>
+      <c r="AM5">
+        <v>4.5132431462293482E-4</v>
+      </c>
+      <c r="AN5">
+        <v>4.5132431462293482E-4</v>
+      </c>
+      <c r="AO5">
+        <v>4.7628468868221585E-4</v>
+      </c>
+      <c r="AP5">
+        <v>5.0124506274149688E-4</v>
+      </c>
+      <c r="AQ5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AR5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AS5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AT5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AU5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AV5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AW5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AX5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AY5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="AZ5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BA5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BB5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BC5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BD5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BE5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BF5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BG5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BH5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BI5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BJ5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BK5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BL5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BM5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BN5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BO5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BP5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BQ5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BR5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+      <c r="BS5">
+        <v>5.2620543680078485E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2237,72 +2711,177 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="18">
-        <v>4.3994071688745889E-4</v>
+        <v>4.3772593496740637E-4</v>
       </c>
       <c r="R6" s="18">
-        <v>4.4221362236821979E-4</v>
+        <v>4.3997234608807861E-4</v>
       </c>
       <c r="S6" s="18">
-        <v>4.4448652784898068E-4</v>
+        <v>4.4221875720874999E-4</v>
       </c>
       <c r="T6" s="18">
-        <v>4.4675943332974245E-4</v>
+        <v>4.4446516832942137E-4</v>
       </c>
       <c r="U6" s="18">
-        <v>4.4903233881050334E-4</v>
+        <v>4.4671157945009275E-4</v>
       </c>
       <c r="V6" s="18">
-        <v>4.5130524429126424E-4</v>
+        <v>4.4895799057076413E-4</v>
       </c>
       <c r="W6" s="18">
-        <v>4.53578149772026E-4</v>
+        <v>4.5120440169143551E-4</v>
       </c>
       <c r="X6" s="18">
-        <v>4.5585105525278689E-4</v>
+        <v>4.5345081281210689E-4</v>
       </c>
       <c r="Y6" s="18">
-        <v>4.5812396073354779E-4</v>
+        <v>4.5569722393277827E-4</v>
       </c>
       <c r="Z6" s="18">
-        <v>4.6039686621430955E-4</v>
+        <v>4.5794363505344965E-4</v>
       </c>
       <c r="AA6" s="18">
-        <v>4.6266977169507045E-4</v>
+        <v>4.6019004617412103E-4</v>
       </c>
       <c r="AB6" s="18">
-        <v>4.6494267717583221E-4</v>
+        <v>4.6243645729479241E-4</v>
       </c>
       <c r="AC6" s="18">
-        <v>4.672155826565931E-4</v>
+        <v>4.6468286841546465E-4</v>
       </c>
       <c r="AD6" s="18">
-        <v>4.69488488137354E-4</v>
+        <v>4.6692927953613603E-4</v>
       </c>
       <c r="AE6" s="18">
-        <v>4.7176139361811576E-4</v>
+        <v>4.6917569065680741E-4</v>
       </c>
       <c r="AF6" s="18">
-        <v>4.7403429909887666E-4</v>
+        <v>4.7142210177747879E-4</v>
       </c>
       <c r="AG6" s="18">
-        <v>4.7630720457963755E-4</v>
+        <v>4.7366851289815017E-4</v>
       </c>
       <c r="AH6" s="18">
-        <v>4.7858011006039931E-4</v>
+        <v>4.7591492401882155E-4</v>
       </c>
       <c r="AI6" s="18">
-        <v>4.8085301554116021E-4</v>
+        <v>4.7816133513949293E-4</v>
       </c>
       <c r="AJ6" s="16">
-        <v>4.831259210219211E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>4.8040774626016431E-4</v>
+      </c>
+      <c r="AK6">
+        <v>4.8763028027001322E-4</v>
+      </c>
+      <c r="AL6">
+        <v>4.8763028027001322E-4</v>
+      </c>
+      <c r="AM6">
+        <v>4.9028662068749482E-4</v>
+      </c>
+      <c r="AN6">
+        <v>4.8860949054331819E-4</v>
+      </c>
+      <c r="AO6">
+        <v>4.8612287650563534E-4</v>
+      </c>
+      <c r="AP6">
+        <v>4.876857048740875E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>4.9009396659068839E-4</v>
+      </c>
+      <c r="AR6">
+        <v>4.9304194209053107E-4</v>
+      </c>
+      <c r="AS6">
+        <v>4.9594337968184054E-4</v>
+      </c>
+      <c r="AT6">
+        <v>4.9499013028162593E-4</v>
+      </c>
+      <c r="AU6">
+        <v>5.0117685965480371E-4</v>
+      </c>
+      <c r="AV6">
+        <v>5.0707771375029019E-4</v>
+      </c>
+      <c r="AW6">
+        <v>5.1258184899585606E-4</v>
+      </c>
+      <c r="AX6">
+        <v>5.1867213888701991E-4</v>
+      </c>
+      <c r="AY6">
+        <v>5.1815676220404964E-4</v>
+      </c>
+      <c r="AZ6">
+        <v>5.2013387416039543E-4</v>
+      </c>
+      <c r="BA6">
+        <v>5.2225078660338446E-4</v>
+      </c>
+      <c r="BB6">
+        <v>5.2415984978515908E-4</v>
+      </c>
+      <c r="BC6">
+        <v>5.2625237830630257E-4</v>
+      </c>
+      <c r="BD6">
+        <v>5.2613088937030199E-4</v>
+      </c>
+      <c r="BE6">
+        <v>5.2894572464731119E-4</v>
+      </c>
+      <c r="BF6">
+        <v>5.320068947752513E-4</v>
+      </c>
+      <c r="BG6">
+        <v>5.3492687078385975E-4</v>
+      </c>
+      <c r="BH6">
+        <v>5.3822050220801482E-4</v>
+      </c>
+      <c r="BI6">
+        <v>5.415909477399552E-4</v>
+      </c>
+      <c r="BJ6">
+        <v>5.4244022600549702E-4</v>
+      </c>
+      <c r="BK6">
+        <v>5.434069387641971E-4</v>
+      </c>
+      <c r="BL6">
+        <v>5.445137125691397E-4</v>
+      </c>
+      <c r="BM6">
+        <v>5.4552930253349977E-4</v>
+      </c>
+      <c r="BN6">
+        <v>5.4676335744935475E-4</v>
+      </c>
+      <c r="BO6">
+        <v>5.4775940209517973E-4</v>
+      </c>
+      <c r="BP6">
+        <v>5.4897755809767156E-4</v>
+      </c>
+      <c r="BQ6">
+        <v>5.5041507848450628E-4</v>
+      </c>
+      <c r="BR6">
+        <v>5.5181991641578218E-4</v>
+      </c>
+      <c r="BS6">
+        <v>5.5356591904673846E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2319,182 +2898,392 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="18">
-        <v>7.9693047335343542E-5</v>
+        <v>8.0797052950278472E-5</v>
       </c>
       <c r="R7" s="18">
-        <v>8.1447170195604214E-5</v>
+        <v>8.2316915313046646E-5</v>
       </c>
       <c r="S7" s="18">
-        <v>8.3201293055865319E-5</v>
+        <v>8.3836777675815253E-5</v>
       </c>
       <c r="T7" s="18">
-        <v>8.4955415916125991E-5</v>
+        <v>8.5356640038583426E-5</v>
       </c>
       <c r="U7" s="18">
-        <v>8.6709538776387097E-5</v>
+        <v>8.68765024013516E-5</v>
       </c>
       <c r="V7" s="18">
-        <v>8.8463661636647769E-5</v>
+        <v>8.8396364764119773E-5</v>
       </c>
       <c r="W7" s="18">
-        <v>9.0217784496908875E-5</v>
+        <v>8.9916227126887946E-5</v>
       </c>
       <c r="X7" s="18">
-        <v>9.1971907357169547E-5</v>
+        <v>9.143608948965612E-5</v>
       </c>
       <c r="Y7" s="18">
-        <v>9.3726030217430653E-5</v>
+        <v>9.2955951852424293E-5</v>
       </c>
       <c r="Z7" s="18">
-        <v>9.5480153077691325E-5</v>
+        <v>9.4475814215192467E-5</v>
       </c>
       <c r="AA7" s="18">
-        <v>9.723427593795243E-5</v>
+        <v>9.599567657796064E-5</v>
       </c>
       <c r="AB7" s="18">
-        <v>9.8988398798213103E-5</v>
+        <v>9.7515538940728814E-5</v>
       </c>
       <c r="AC7" s="18">
-        <v>1.0074252165847421E-4</v>
+        <v>9.9035401303496987E-5</v>
       </c>
       <c r="AD7" s="18">
-        <v>1.0249664451873488E-4</v>
+        <v>1.0055526366626516E-4</v>
       </c>
       <c r="AE7" s="18">
-        <v>1.0425076737899555E-4</v>
+        <v>1.0207512602903333E-4</v>
       </c>
       <c r="AF7" s="18">
-        <v>1.0600489023925666E-4</v>
+        <v>1.0359498839180151E-4</v>
       </c>
       <c r="AG7" s="18">
-        <v>1.0775901309951733E-4</v>
+        <v>1.0511485075457011E-4</v>
       </c>
       <c r="AH7" s="18">
-        <v>1.0951313595977844E-4</v>
+        <v>1.0663471311733829E-4</v>
       </c>
       <c r="AI7" s="18">
-        <v>1.1126725882003911E-4</v>
+        <v>1.0815457548010646E-4</v>
       </c>
       <c r="AJ7" s="16">
-        <v>1.1302138168030021E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+        <v>1.0967443784287463E-4</v>
+      </c>
+      <c r="AK7">
+        <v>1.0629135687490201E-4</v>
+      </c>
+      <c r="AL7">
+        <v>1.0629135687490201E-4</v>
+      </c>
+      <c r="AM7">
+        <v>1.0901278138476584E-4</v>
+      </c>
+      <c r="AN7">
+        <v>1.1090132468147135E-4</v>
+      </c>
+      <c r="AO7">
+        <v>1.145933533242113E-4</v>
+      </c>
+      <c r="AP7">
+        <v>1.2072218983200174E-4</v>
+      </c>
+      <c r="AQ7">
+        <v>1.2512852098310389E-4</v>
+      </c>
+      <c r="AR7">
+        <v>1.2882497823807134E-4</v>
+      </c>
+      <c r="AS7">
+        <v>1.3282574606745103E-4</v>
+      </c>
+      <c r="AT7">
+        <v>1.3500815012928787E-4</v>
+      </c>
+      <c r="AU7">
+        <v>1.3827101082951242E-4</v>
+      </c>
+      <c r="AV7">
+        <v>1.4281480821123536E-4</v>
+      </c>
+      <c r="AW7">
+        <v>1.4849189391458962E-4</v>
+      </c>
+      <c r="AX7">
+        <v>1.5221505992553679E-4</v>
+      </c>
+      <c r="AY7">
+        <v>1.5302170840885955E-4</v>
+      </c>
+      <c r="AZ7">
+        <v>1.545461939776133E-4</v>
+      </c>
+      <c r="BA7">
+        <v>1.5576821095175084E-4</v>
+      </c>
+      <c r="BB7">
+        <v>1.5785664686997797E-4</v>
+      </c>
+      <c r="BC7">
+        <v>1.5925219573451592E-4</v>
+      </c>
+      <c r="BD7">
+        <v>1.5940730834881274E-4</v>
+      </c>
+      <c r="BE7">
+        <v>1.5941967575438737E-4</v>
+      </c>
+      <c r="BF7">
+        <v>1.6007675956157771E-4</v>
+      </c>
+      <c r="BG7">
+        <v>1.6085766515632741E-4</v>
+      </c>
+      <c r="BH7">
+        <v>1.6053843171620177E-4</v>
+      </c>
+      <c r="BI7">
+        <v>1.6039663424155488E-4</v>
+      </c>
+      <c r="BJ7">
+        <v>1.600594905577296E-4</v>
+      </c>
+      <c r="BK7">
+        <v>1.5994610791426753E-4</v>
+      </c>
+      <c r="BL7">
+        <v>1.5954865720524053E-4</v>
+      </c>
+      <c r="BM7">
+        <v>1.5890756203755155E-4</v>
+      </c>
+      <c r="BN7">
+        <v>1.5825869366099308E-4</v>
+      </c>
+      <c r="BO7">
+        <v>1.5764624738230399E-4</v>
+      </c>
+      <c r="BP7">
+        <v>1.565554061179373E-4</v>
+      </c>
+      <c r="BQ7">
+        <v>1.5558352667455766E-4</v>
+      </c>
+      <c r="BR7">
+        <v>1.5454787161668808E-4</v>
+      </c>
+      <c r="BS7">
+        <v>1.5310096361050281E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="D8" s="18">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="F8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="G8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="H8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="I8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="J8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="K8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="L8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="M8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="N8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="O8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="P8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="R8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="S8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="T8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="U8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="V8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="W8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="X8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>8.6880206543420136E-4</v>
+      </c>
+      <c r="AK8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AL8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AM8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AN8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AO8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AP8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AQ8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AR8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AS8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AT8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AU8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AV8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AW8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AX8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AY8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="AZ8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BA8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BB8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BC8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BD8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BE8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BF8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BG8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BH8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BI8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BJ8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BK8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BL8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BM8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BN8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BO8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BP8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BQ8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BR8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+      <c r="BS8">
+        <v>8.6880206543420093E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="18">
-        <v>8.816700298691681E-4</v>
-      </c>
-      <c r="D8" s="18">
-        <v>8.816700298691681E-4</v>
-      </c>
-      <c r="E8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="F8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="G8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="H8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="I8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="J8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="K8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="L8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="M8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="N8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="O8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="P8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="R8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="S8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="T8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="U8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="V8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="W8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="X8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>8.8167002986916745E-4</v>
-      </c>
-      <c r="AJ8" s="16">
-        <v>8.8167002986916745E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="18">
         <v>5.9178616427142195E-3</v>
@@ -2598,13 +3387,118 @@
       <c r="AJ9" s="16">
         <v>5.9178616427142195E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AL9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AM9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AN9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AO9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AP9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AR9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AS9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AT9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AU9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AV9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AW9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AX9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AY9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="AZ9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BA9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BB9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BC9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BD9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BE9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BF9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BG9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BH9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BI9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BJ9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BK9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BL9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BM9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BN9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BO9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BP9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BQ9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BR9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+      <c r="BS9">
+        <v>5.9178616427142247E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18">
@@ -2706,121 +3600,331 @@
       <c r="AJ10" s="16">
         <v>1.9362141353943097E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AL10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AM10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AN10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AO10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AP10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AQ10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AR10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AS10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AT10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AU10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AV10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AW10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AX10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AY10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AZ10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BA10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BB10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BC10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BD10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BE10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BF10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BG10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BH10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BI10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BJ10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BK10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BL10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BM10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BN10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BO10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BP10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BQ10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BR10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BS10">
+        <v>1.9362141353943107E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="18">
-        <v>3.3385235651421097E-3</v>
+        <v>3.3209939763395591E-3</v>
       </c>
       <c r="E11" s="18">
-        <v>3.3998208845563427E-3</v>
+        <v>3.3814550029391821E-3</v>
       </c>
       <c r="F11" s="18">
-        <v>3.4611182039705757E-3</v>
+        <v>3.441916029538819E-3</v>
       </c>
       <c r="G11" s="18">
-        <v>3.5224155233848087E-3</v>
+        <v>3.5023770561384421E-3</v>
       </c>
       <c r="H11" s="18">
-        <v>3.5837128427990417E-3</v>
+        <v>3.5628380827380651E-3</v>
       </c>
       <c r="I11" s="18">
-        <v>3.6450101622132747E-3</v>
+        <v>3.6232991093377021E-3</v>
       </c>
       <c r="J11" s="18">
-        <v>3.7063074816274938E-3</v>
+        <v>3.6837601359373251E-3</v>
       </c>
       <c r="K11" s="18">
-        <v>3.7676048010417268E-3</v>
+        <v>3.7442211625369481E-3</v>
       </c>
       <c r="L11" s="18">
-        <v>3.8289021204559598E-3</v>
+        <v>3.8046821891365851E-3</v>
       </c>
       <c r="M11" s="18">
-        <v>3.8901994398701928E-3</v>
+        <v>3.8651432157362081E-3</v>
       </c>
       <c r="N11" s="18">
-        <v>3.9514967592844258E-3</v>
+        <v>3.925604242335845E-3</v>
       </c>
       <c r="O11" s="18">
-        <v>4.0127940786986588E-3</v>
+        <v>3.9860652689354681E-3</v>
       </c>
       <c r="P11" s="18">
-        <v>4.0740913981128918E-3</v>
+        <v>4.0465262955350911E-3</v>
       </c>
       <c r="Q11" s="18">
-        <v>4.1353887175271248E-3</v>
+        <v>4.1069873221347281E-3</v>
       </c>
       <c r="R11" s="18">
-        <v>4.1966860369413578E-3</v>
+        <v>4.1674483487343511E-3</v>
       </c>
       <c r="S11" s="18">
-        <v>4.2579833563555908E-3</v>
+        <v>4.2279093753339742E-3</v>
       </c>
       <c r="T11" s="18">
-        <v>4.3192806757698238E-3</v>
+        <v>4.2883704019336111E-3</v>
       </c>
       <c r="U11" s="18">
-        <v>4.3805779951840568E-3</v>
+        <v>4.3488314285332341E-3</v>
       </c>
       <c r="V11" s="18">
-        <v>4.4418753145982898E-3</v>
+        <v>4.409292455132871E-3</v>
       </c>
       <c r="W11" s="18">
-        <v>4.5031726340125228E-3</v>
+        <v>4.4697534817324941E-3</v>
       </c>
       <c r="X11" s="18">
-        <v>4.5644699534267558E-3</v>
+        <v>4.5302145083321171E-3</v>
       </c>
       <c r="Y11" s="18">
-        <v>4.6257672728409888E-3</v>
+        <v>4.5906755349317541E-3</v>
       </c>
       <c r="Z11" s="18">
-        <v>4.6870645922552218E-3</v>
+        <v>4.6511365615313771E-3</v>
       </c>
       <c r="AA11" s="18">
-        <v>4.7483619116694409E-3</v>
+        <v>4.7115975881310002E-3</v>
       </c>
       <c r="AB11" s="18">
-        <v>4.8096592310836739E-3</v>
+        <v>4.7720586147306371E-3</v>
       </c>
       <c r="AC11" s="18">
-        <v>4.8709565504979069E-3</v>
+        <v>4.8325196413302601E-3</v>
       </c>
       <c r="AD11" s="18">
-        <v>4.9322538699121399E-3</v>
+        <v>4.8929806679298971E-3</v>
       </c>
       <c r="AE11" s="18">
-        <v>4.9935511893263729E-3</v>
+        <v>4.9534416945295201E-3</v>
       </c>
       <c r="AF11" s="18">
-        <v>5.0548485087406059E-3</v>
+        <v>5.0139027211291431E-3</v>
       </c>
       <c r="AG11" s="18">
-        <v>5.1161458281548389E-3</v>
+        <v>5.0743637477287801E-3</v>
       </c>
       <c r="AH11" s="18">
-        <v>5.1774431475690719E-3</v>
+        <v>5.1348247743284031E-3</v>
       </c>
       <c r="AI11" s="18">
-        <v>5.2387404669833049E-3</v>
+        <v>5.1952858009280262E-3</v>
       </c>
       <c r="AJ11" s="16">
-        <v>5.3000377863975379E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+        <v>5.2557468275276631E-3</v>
+      </c>
+      <c r="AK11">
+        <v>5.2992115229405527E-3</v>
+      </c>
+      <c r="AL11">
+        <v>5.2992115229405527E-3</v>
+      </c>
+      <c r="AM11">
+        <v>5.3934315680825738E-3</v>
+      </c>
+      <c r="AN11">
+        <v>5.4328972597188054E-3</v>
+      </c>
+      <c r="AO11">
+        <v>5.4639690719479918E-3</v>
+      </c>
+      <c r="AP11">
+        <v>5.5418412974535475E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>5.6194390279456462E-3</v>
+      </c>
+      <c r="AR11">
+        <v>5.6977290697036269E-3</v>
+      </c>
+      <c r="AS11">
+        <v>5.7753683101031145E-3</v>
+      </c>
+      <c r="AT11">
+        <v>5.8065339689778806E-3</v>
+      </c>
+      <c r="AU11">
+        <v>5.9168077326028174E-3</v>
+      </c>
+      <c r="AV11">
+        <v>6.0262008784596468E-3</v>
+      </c>
+      <c r="AW11">
+        <v>6.1333911053254144E-3</v>
+      </c>
+      <c r="AX11">
+        <v>6.23926005928913E-3</v>
+      </c>
+      <c r="AY11">
+        <v>6.2631866999947458E-3</v>
+      </c>
+      <c r="AZ11">
+        <v>6.3166177586814537E-3</v>
+      </c>
+      <c r="BA11">
+        <v>6.3698985412702644E-3</v>
+      </c>
+      <c r="BB11">
+        <v>6.4221337603906021E-3</v>
+      </c>
+      <c r="BC11">
+        <v>6.4770178768907465E-3</v>
+      </c>
+      <c r="BD11">
+        <v>6.5040881848864238E-3</v>
+      </c>
+      <c r="BE11">
+        <v>6.5657441588667436E-3</v>
+      </c>
+      <c r="BF11">
+        <v>6.6279838592649453E-3</v>
+      </c>
+      <c r="BG11">
+        <v>6.6926091644649984E-3</v>
+      </c>
+      <c r="BH11">
+        <v>6.7592235851418906E-3</v>
+      </c>
+      <c r="BI11">
+        <v>6.8261740810624423E-3</v>
+      </c>
+      <c r="BJ11">
+        <v>6.8617594497521082E-3</v>
+      </c>
+      <c r="BK11">
+        <v>6.9004780853928341E-3</v>
+      </c>
+      <c r="BL11">
+        <v>6.9410482983891979E-3</v>
+      </c>
+      <c r="BM11">
+        <v>6.9822916342727305E-3</v>
+      </c>
+      <c r="BN11">
+        <v>7.0276191171519658E-3</v>
+      </c>
+      <c r="BO11">
+        <v>7.0718499244147234E-3</v>
+      </c>
+      <c r="BP11">
+        <v>7.1189794928731096E-3</v>
+      </c>
+      <c r="BQ11">
+        <v>7.1700377368293525E-3</v>
+      </c>
+      <c r="BR11">
+        <v>7.221347583681044E-3</v>
+      </c>
+      <c r="BS11">
+        <v>7.2762043320700196E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2847,42 +3951,147 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AB12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AC12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AD12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AE12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AF12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AG12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AH12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AI12" s="18">
-        <v>1.224978406372493E-3</v>
+        <v>1.9289849122619326E-3</v>
       </c>
       <c r="AJ12" s="16">
-        <v>1.224978406372493E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
+        <v>1.9289849122619326E-3</v>
+      </c>
+      <c r="AK12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AL12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AM12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AN12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AO12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AP12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AQ12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AR12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AS12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AT12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AU12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AV12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AW12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AX12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AY12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="AZ12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BA12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BB12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BC12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BD12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BE12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BF12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BG12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BH12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BI12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BJ12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BK12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BL12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BM12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BN12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BO12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BP12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BQ12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BR12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+      <c r="BS12">
+        <v>1.9289849122619321E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -2938,20 +4147,125 @@
       <c r="AJ13" s="16">
         <v>2.8695692967972252E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AL13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AM13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AN13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AO13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AP13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AQ13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AR13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AS13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AT13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AU13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AV13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AW13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AX13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AY13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="AZ13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BA13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BB13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BC13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BD13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BE13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BF13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BG13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BH13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BI13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BJ13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BK13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BL13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BM13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BN13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BO13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BP13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BQ13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BR13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+      <c r="BS13">
+        <v>2.8695692967972252E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2960,10 +4274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2973,81 +4289,82 @@
     <col min="4" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3055,8 +4372,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
@@ -3073,128 +4391,146 @@
         <v>7</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -3211,12 +4547,15 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3224,8 +4563,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
@@ -3242,128 +4582,146 @@
         <v>7</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
       <c r="B33" s="8">
         <v>1</v>
       </c>
@@ -3379,8 +4737,11 @@
       <c r="F33" s="8">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3390,25 +4751,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="60">
+      <c r="A1" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3425,40 +4792,47 @@
         <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B19</f>
-        <v>1.6736156867293993E-3</v>
+        <v>3.7221638990516748E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C19</f>
-        <v>5.2559831484063789E-4</v>
+        <v>1.1689440344129229E-3</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W2:AJ2)*'Calibration Adjustments'!D19</f>
-        <v>5.2559831484063789E-4</v>
+        <v>1.1689440344129229E-3</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E19</f>
-        <v>5.2559831484063789E-4</v>
+        <v>1.1689440344129229E-3</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F19</f>
-        <v>1.1570078693794567E-3</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.5732149599642365E-3</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$D2*'Calibration Adjustments'!G19</f>
+        <v>1.1689440344129229E-3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B20</f>
@@ -3480,13 +4854,17 @@
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F20</f>
         <v>9.8531927531281937E-3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="11">
+        <f>$E3*'Calibration Adjustments'!G20</f>
+        <v>4.4435571578869126E-3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3497,90 +4875,103 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="18">
+        <f>AVERAGE('BHNVFEAL data'!Q6:AJ6)*'Calibration Adjustments'!E21</f>
+        <v>4.5906684061378566E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="11">
-        <f>AVERAGE('BHNVFEAL data'!Q6:AJ6)*'Calibration Adjustments'!G21</f>
-        <v>4.6153331895469E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!E22</f>
+        <v>8.6880206543420147E-4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!G22</f>
-        <v>8.8167002986916734E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <f>AVERAGE('BHNVFEAL data'!D10:AJ10)*'Calibration Adjustments'!E23</f>
+        <v>1.9362141353943094E-4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <f>AVERAGE('BHNVFEAL data'!D10:AJ10)*'Calibration Adjustments'!G23</f>
-        <v>1.9362141353943094E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B24</f>
-        <v>3.9005891360808322E-3</v>
+        <v>6.1422940627287852E-3</v>
       </c>
       <c r="C7" s="11">
         <f>$D7*'Calibration Adjustments'!C24</f>
-        <v>1.224978406372493E-3</v>
+        <v>1.928984912261933E-3</v>
       </c>
       <c r="D7" s="11">
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!D24</f>
-        <v>1.224978406372493E-3</v>
+        <v>1.928984912261933E-3</v>
       </c>
       <c r="E7" s="11">
         <f>$D7*'Calibration Adjustments'!E24</f>
-        <v>1.224978406372493E-3</v>
+        <v>1.928984912261933E-3</v>
       </c>
       <c r="F7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F24</f>
-        <v>2.6965643077120796E-3</v>
-      </c>
-      <c r="G7">
+        <v>4.2463049450187015E-3</v>
+      </c>
+      <c r="G7" s="18">
+        <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
+        <v>1.928984912261933E-3</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -3590,25 +4981,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="45">
+      <c r="A1" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
@@ -3625,40 +5021,47 @@
         <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B28</f>
-        <v>1.0878864131157243E-3</v>
+        <v>1.0446973225150301E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C28</f>
-        <v>3.4165027849915314E-4</v>
+        <v>3.2808676244273677E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W3:AJ3)*'Calibration Adjustments'!D28</f>
-        <v>3.4165027849915314E-4</v>
+        <v>3.2808676244273677E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E28</f>
-        <v>3.4165027849915314E-4</v>
+        <v>3.2808676244273677E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F28</f>
-        <v>7.520801525382673E-4</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>7.2222257048249817E-4</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$D2*'Calibration Adjustments'!G28</f>
+        <v>3.2808676244273677E-4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11">
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calibration Adjustments'!B29</f>
@@ -3680,13 +5083,17 @@
         <f>$E3/(1-'Calculations Etc'!$B$3)*'Calculations Etc'!$B$6+$E3*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F29</f>
         <v>1.0007715233864502E-3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="11">
+        <f>$E3*'Calibration Adjustments'!G29</f>
+        <v>4.5132431462293482E-4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3697,68 +5104,80 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="18">
+        <f>AVERAGE('BHNVFEAL data'!Q7:AJ7)*'Calibration Adjustments'!E30</f>
+        <v>9.5235745396576635E-5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <f>AVERAGE('BHNVFEAL data'!Q7:AJ7)*'Calibration Adjustments'!G30</f>
-        <v>9.6357214507821837E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!E31</f>
+        <v>5.9178616427142186E-3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!G31</f>
-        <v>5.9178616427142186E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!E32</f>
+        <v>4.2883704019336085E-3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!G32</f>
-        <v>4.319280675769822E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B33</f>
@@ -3780,7 +5199,11 @@
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F33</f>
         <v>6.3168282020286293E-4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
+        <f>$D7*'Calibration Adjustments'!G33</f>
+        <v>2.8695692967972258E-4</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614C1F3-7847-437A-93C8-86FB38F1E634}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -238,14 +237,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -910,33 +909,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1068,7 +1067,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1123,14 +1122,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1145,159 +1144,159 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1469,23 +1468,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1521,23 +1503,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1713,15 +1678,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1823,16 +1788,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1889,16 +1854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71">
@@ -2032,152 +1997,152 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="X2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="Z2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AA2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AB2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AC2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AD2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AE2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AF2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AG2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AH2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AI2" s="15">
-        <v>1.2113409683035476E-3</v>
-      </c>
-      <c r="AJ2" s="15">
-        <v>1.2113409683035476E-3</v>
+      <c r="W2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="X2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="Y2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="Z2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AA2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AB2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AC2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AD2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AE2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AF2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AG2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AH2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AI2">
+        <v>6.3882446012192978E-4</v>
+      </c>
+      <c r="AJ2">
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AK2">
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AL2">
-        <v>1.2113409683035476E-3</v>
+        <v>6.3882446012192978E-4</v>
       </c>
       <c r="AM2">
-        <v>1.2477387925424188E-3</v>
+        <v>6.574596268394961E-4</v>
       </c>
       <c r="AN2">
-        <v>1.284136616781284E-3</v>
+        <v>6.7609479355706936E-4</v>
       </c>
       <c r="AO2">
-        <v>1.3205344410201492E-3</v>
+        <v>6.9472996027463568E-4</v>
       </c>
       <c r="AP2">
-        <v>1.3569322652590143E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AQ2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AR2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AS2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AT2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AU2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AV2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AW2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AX2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AY2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="AZ2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BA2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BB2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BC2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BD2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BE2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BF2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BG2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BH2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BI2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BJ2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BK2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BL2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BM2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BN2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BO2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BP2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BQ2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BR2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
       <c r="BS2">
-        <v>1.3933300894978799E-3</v>
+        <v>7.133651269922097E-4</v>
       </c>
     </row>
     <row r="3" spans="1:71">
@@ -3071,211 +3036,211 @@
         <v>42</v>
       </c>
       <c r="C8" s="18">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="D8" s="18">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="E8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="F8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="G8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="H8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="I8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="J8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="K8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="L8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="M8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="N8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="O8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="P8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Q8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="R8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="S8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="T8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="U8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="V8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="W8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="X8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Y8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="Z8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AA8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AB8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AC8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AD8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AE8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AF8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AG8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AH8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AI8" s="18">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AJ8" s="16">
-        <v>8.6880206543420136E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="AK8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AL8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AM8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AN8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AO8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AP8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AQ8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AR8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AS8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AT8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AU8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AV8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AW8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AX8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AY8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="AZ8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BA8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BB8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BC8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BD8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BE8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BF8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BG8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BH8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BI8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BJ8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BK8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BL8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BM8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BN8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BO8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BP8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BQ8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BR8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
       <c r="BS8">
-        <v>8.6880206543420093E-4</v>
+        <v>2.4412212193692232E-3</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -3286,211 +3251,211 @@
         <v>43</v>
       </c>
       <c r="C9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="D9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="E9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="F9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="G9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="H9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="I9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="J9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="K9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="L9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="M9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="N9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="O9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="P9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Q9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="R9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="S9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="T9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="U9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="V9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="W9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="X9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Y9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="Z9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AA9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AB9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AC9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AD9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AE9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AF9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AG9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AH9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AI9" s="18">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AJ9" s="16">
-        <v>5.9178616427142195E-3</v>
+        <v>7.0214683806076091E-3</v>
       </c>
       <c r="AK9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AL9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AM9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AN9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AO9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AP9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AQ9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AR9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AS9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AT9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AU9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AV9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AW9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AX9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AY9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="AZ9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BA9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BB9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BC9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BD9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BE9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BF9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BG9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BH9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BI9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BJ9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BK9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BL9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BM9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BN9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BO9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BP9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BQ9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BR9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
       <c r="BS9">
-        <v>5.9178616427142247E-3</v>
+        <v>7.0214683806076135E-3</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -3951,139 +3916,139 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AB12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AC12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AD12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AE12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AF12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AG12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AH12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AI12" s="18">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AJ12" s="16">
-        <v>1.9289849122619326E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="AK12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AL12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AM12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AN12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AO12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AP12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AQ12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AR12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AS12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AT12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AU12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AV12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AW12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AX12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AY12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="AZ12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BA12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BB12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BC12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BD12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BE12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BF12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BG12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BH12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BI12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BJ12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BK12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BL12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BM12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BN12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BO12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BP12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BQ12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BR12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
       <c r="BS12">
-        <v>1.9289849122619321E-3</v>
+        <v>1.5431879298095457E-3</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -4118,139 +4083,139 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AB13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AC13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AD13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AE13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AF13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AG13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AH13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AI13" s="18">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AJ13" s="16">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AK13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AL13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AM13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AN13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AO13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AP13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AQ13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AR13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AS13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AT13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AU13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AV13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AW13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AX13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AY13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="AZ13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BA13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BB13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BC13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BD13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BE13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BF13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BG13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BH13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BI13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BJ13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BK13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BL13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BM13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BN13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BO13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BP13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BQ13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BR13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="BS13">
-        <v>2.8695692967972252E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -4274,22 +4239,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4408,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="21">
-        <v>0.96499999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -4599,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="21">
-        <v>0.96030000000000004</v>
+        <v>1</v>
       </c>
       <c r="E28" s="8">
         <v>1</v>
@@ -4751,28 +4716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:8" ht="42.75">
       <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
@@ -4804,27 +4769,27 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B19</f>
-        <v>3.7221638990516748E-3</v>
+        <v>1.6273212563105998E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C19</f>
-        <v>1.1689440344129229E-3</v>
+        <v>5.1105956809754385E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W2:AJ2)*'Calibration Adjustments'!D19</f>
-        <v>1.1689440344129229E-3</v>
+        <v>5.1105956809754385E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E19</f>
-        <v>1.1689440344129229E-3</v>
+        <v>5.1105956809754385E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F19</f>
-        <v>2.5732149599642365E-3</v>
+        <v>1.1250034966147247E-3</v>
       </c>
       <c r="G2" s="11">
         <f>$D2*'Calibration Adjustments'!G19</f>
-        <v>1.1689440344129229E-3</v>
+        <v>5.1105956809754385E-4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4893,8 +4858,9 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="18">
+        <f>E5*'Calculations Etc'!B3</f>
+        <v>1.6815384794901323E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4904,7 +4870,7 @@
       </c>
       <c r="E5" s="18">
         <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!E22</f>
-        <v>8.6880206543420147E-4</v>
+        <v>2.4412212193692241E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4949,27 +4915,27 @@
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B24</f>
-        <v>6.1422940627287852E-3</v>
+        <v>4.9138352501830228E-3</v>
       </c>
       <c r="C7" s="11">
         <f>$D7*'Calibration Adjustments'!C24</f>
-        <v>1.928984912261933E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="D7" s="11">
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!D24</f>
-        <v>1.928984912261933E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="E7" s="11">
         <f>$D7*'Calibration Adjustments'!E24</f>
-        <v>1.928984912261933E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="F7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F24</f>
-        <v>4.2463049450187015E-3</v>
+        <v>3.3970439560149579E-3</v>
       </c>
       <c r="G7" s="18">
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
-        <v>1.928984912261933E-3</v>
+        <v>1.5431879298095448E-3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4981,27 +4947,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" customWidth="1"/>
+    <col min="4" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="8" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="42.75">
       <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
@@ -5033,27 +4999,27 @@
       </c>
       <c r="B2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B28</f>
-        <v>1.0446973225150301E-3</v>
+        <v>1.0878864131157243E-3</v>
       </c>
       <c r="C2" s="11">
         <f>$D2*'Calibration Adjustments'!C28</f>
-        <v>3.2808676244273677E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="D2" s="11">
         <f>AVERAGE('BHNVFEAL data'!W3:AJ3)*'Calibration Adjustments'!D28</f>
-        <v>3.2808676244273677E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="E2" s="11">
         <f>$D2*'Calibration Adjustments'!E28</f>
-        <v>3.2808676244273677E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="F2" s="11">
         <f>$D2/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D2*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F28</f>
-        <v>7.2222257048249817E-4</v>
+        <v>7.520801525382673E-4</v>
       </c>
       <c r="G2" s="11">
         <f>$D2*'Calibration Adjustments'!G28</f>
-        <v>3.2808676244273677E-4</v>
+        <v>3.4165027849915314E-4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5123,8 +5089,9 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="18">
+        <f>E5*'Calculations Etc'!B3</f>
+        <v>4.8364601990333661E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5134,7 +5101,7 @@
       </c>
       <c r="E5" s="18">
         <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!E31</f>
-        <v>5.9178616427142186E-3</v>
+        <v>7.0214683806076057E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5181,27 +5148,27 @@
       </c>
       <c r="B7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calibration Adjustments'!B33</f>
-        <v>9.1373127608543228E-4</v>
+        <v>3.7839224609655542E-3</v>
       </c>
       <c r="C7" s="11">
         <f>$D7*'Calibration Adjustments'!C33</f>
-        <v>2.8695692967972258E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="D7" s="11">
         <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!D33</f>
-        <v>2.8695692967972258E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="E7" s="11">
         <f>$D7*'Calibration Adjustments'!E33</f>
-        <v>2.8695692967972258E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="F7" s="11">
         <f>$D7/(1-'Calculations Etc'!$B$2)*'Calculations Etc'!$B$6+$D7*(1-'Calculations Etc'!$B$6)*'Calibration Adjustments'!F33</f>
-        <v>6.3168282020286293E-4</v>
+        <v>2.615910031898914E-3</v>
       </c>
       <c r="G7" s="11">
         <f>$D7*'Calibration Adjustments'!G33</f>
-        <v>2.8695692967972258E-4</v>
+        <v>1.1883392852619099E-3</v>
       </c>
       <c r="H7">
         <v>0</v>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -36,7 +36,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Sources:</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Fuel Economy (freight ton*miles/BTU)</t>
+  </si>
+  <si>
+    <t>gasoline car efficiency</t>
+  </si>
+  <si>
+    <t>hydrogen FCV efficiency</t>
+  </si>
+  <si>
+    <t>distance multiplier for hydrogen vehicles</t>
+  </si>
+  <si>
+    <t>Hydrogen vs. Gasoline Efficiency (see trans/BHNVFEAL)</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1846,6 +1858,37 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <f>B10/B9</f>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4766,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4791,8 +4834,9 @@
         <f>$D2*'Calibration Adjustments'!G19</f>
         <v>5.1105956809754385E-4</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" s="11">
+        <f>D2*'Calculations Etc'!$B$11</f>
+        <v>1.2776489202438596E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4823,8 +4867,9 @@
         <f>$E3*'Calibration Adjustments'!G20</f>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" s="11">
+        <f>D3*'Calculations Etc'!$B$11</f>
+        <v>1.1108892894717282E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4937,8 +4982,9 @@
         <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
         <v>1.5431879298095448E-3</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" s="11">
+        <f>D7*'Calculations Etc'!$B$11</f>
+        <v>3.8579698245238621E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +5000,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5021,8 +5067,9 @@
         <f>$D2*'Calibration Adjustments'!G28</f>
         <v>3.4165027849915314E-4</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" s="11">
+        <f>D2*'Calculations Etc'!$B$11</f>
+        <v>8.5412569624788287E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5053,8 +5100,9 @@
         <f>$E3*'Calibration Adjustments'!G29</f>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" s="11">
+        <f>D3*'Calculations Etc'!$B$11</f>
+        <v>1.128310786557337E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5082,7 +5130,8 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>AVERAGE('BHNVFEAL data'!R7:AK7)*'Calibration Adjustments'!H30</f>
+        <v>9.65104605928078E-5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5111,7 +5160,8 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>AVERAGE('BHNVFEAL data'!D9:AK9)*'Calibration Adjustments'!H31</f>
+        <v>7.0214683806076057E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5139,7 +5189,8 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>AVERAGE('BHNVFEAL data'!E11:AK11)*'Calibration Adjustments'!H32</f>
+        <v>4.3483163881942446E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5170,8 +5221,9 @@
         <f>$D7*'Calibration Adjustments'!G33</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" s="11">
+        <f>D7*'Calculations Etc'!$B$11</f>
+        <v>2.9708482131547745E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM" localSheetId="5">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>Sources:</t>
   </si>
@@ -258,7 +259,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +500,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1125,7 +1133,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1154,6 +1162,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -1399,6 +1410,1402 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="BNVFE"/>
+      <sheetName val="Other Values"/>
+      <sheetName val="Extrapolations"/>
+      <sheetName val="BHNVFEAL-LDVs-psgr"/>
+      <sheetName val="BHNVFEAL-LDVs-frgt"/>
+      <sheetName val="BHNVFEAL-HDVs-psgr"/>
+      <sheetName val="BHNVFEAL-HDVs-frgt"/>
+      <sheetName val="BHNVFEAL-aircraft-psgr"/>
+      <sheetName val="BHNVFEAL-aircraft-frgt"/>
+      <sheetName val="BHNVFEAL-rail-psgr"/>
+      <sheetName val="BHNVFEAL-rail-frgt"/>
+      <sheetName val="BHNVFEAL-ships-psgr"/>
+      <sheetName val="BHNVFEAL-ships-frgt"/>
+      <sheetName val="BHNVFEAL-motorbikes-psgr"/>
+      <sheetName val="BHNVFEAL-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="D8">
+            <v>6.3882446012192978E-4</v>
+          </cell>
+          <cell r="E8">
+            <v>6.574596268394961E-4</v>
+          </cell>
+          <cell r="F8">
+            <v>6.7609479355706936E-4</v>
+          </cell>
+          <cell r="G8">
+            <v>6.9472996027463568E-4</v>
+          </cell>
+          <cell r="H8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="I8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="J8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="K8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="L8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="M8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="N8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="O8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="P8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="Q8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="R8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="S8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="T8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="U8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="V8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="W8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="X8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="Y8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="Z8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AA8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AB8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AC8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AD8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AE8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AF8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AG8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AH8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AI8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AJ8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+          <cell r="AK8">
+            <v>7.133651269922097E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="E9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="F9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="G9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="H9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="I9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="J9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="K9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="L9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="M9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="N9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="O9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="P9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="R9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="S9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="T9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="U9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="V9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="W9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="X9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="Y9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="Z9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AA9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AB9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AC9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AD9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AE9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AF9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AG9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AH9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AI9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AJ9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+          <cell r="AK9">
+            <v>3.4165027849915303E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>4.4435571578869126E-3</v>
+          </cell>
+          <cell r="E10">
+            <v>4.4435571578869126E-3</v>
+          </cell>
+          <cell r="F10">
+            <v>4.4435571578869126E-3</v>
+          </cell>
+          <cell r="G10">
+            <v>4.7193641538936237E-3</v>
+          </cell>
+          <cell r="H10">
+            <v>4.9951711499004459E-3</v>
+          </cell>
+          <cell r="I10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="J10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="K10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="L10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="M10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="N10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="O10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="P10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="Q10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="R10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="S10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="T10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="U10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="V10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="W10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="X10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="Y10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="Z10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AA10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AB10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AC10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AD10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AE10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AF10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AG10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AH10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AI10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AJ10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+          <cell r="AK10">
+            <v>5.270978145907157E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>4.5132431462293482E-4</v>
+          </cell>
+          <cell r="E11">
+            <v>4.5132431462293482E-4</v>
+          </cell>
+          <cell r="F11">
+            <v>4.5132431462293482E-4</v>
+          </cell>
+          <cell r="G11">
+            <v>4.7628468868221585E-4</v>
+          </cell>
+          <cell r="H11">
+            <v>5.0124506274149688E-4</v>
+          </cell>
+          <cell r="I11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="J11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="K11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="L11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="M11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="N11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="O11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="P11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="Q11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="R11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="S11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="T11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="U11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="V11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="W11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="X11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="Y11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="Z11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AA11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AB11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AC11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AD11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AE11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AF11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AG11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AH11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AI11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AJ11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+          <cell r="AK11">
+            <v>5.2620543680078485E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>4.8763028027001322E-4</v>
+          </cell>
+          <cell r="E12">
+            <v>4.9028662068749482E-4</v>
+          </cell>
+          <cell r="F12">
+            <v>4.8860949054331819E-4</v>
+          </cell>
+          <cell r="G12">
+            <v>4.8612287650563534E-4</v>
+          </cell>
+          <cell r="H12">
+            <v>4.876857048740875E-4</v>
+          </cell>
+          <cell r="I12">
+            <v>4.9009396659068839E-4</v>
+          </cell>
+          <cell r="J12">
+            <v>4.9304194209053107E-4</v>
+          </cell>
+          <cell r="K12">
+            <v>4.9594337968184054E-4</v>
+          </cell>
+          <cell r="L12">
+            <v>4.9499013028162593E-4</v>
+          </cell>
+          <cell r="M12">
+            <v>5.0117685965480371E-4</v>
+          </cell>
+          <cell r="N12">
+            <v>5.0707771375029019E-4</v>
+          </cell>
+          <cell r="O12">
+            <v>5.1258184899585606E-4</v>
+          </cell>
+          <cell r="P12">
+            <v>5.1867213888701991E-4</v>
+          </cell>
+          <cell r="Q12">
+            <v>5.1815676220404964E-4</v>
+          </cell>
+          <cell r="R12">
+            <v>5.2013387416039543E-4</v>
+          </cell>
+          <cell r="S12">
+            <v>5.2225078660338446E-4</v>
+          </cell>
+          <cell r="T12">
+            <v>5.2415984978515908E-4</v>
+          </cell>
+          <cell r="U12">
+            <v>5.2625237830630257E-4</v>
+          </cell>
+          <cell r="V12">
+            <v>5.2613088937030199E-4</v>
+          </cell>
+          <cell r="W12">
+            <v>5.2894572464731119E-4</v>
+          </cell>
+          <cell r="X12">
+            <v>5.320068947752513E-4</v>
+          </cell>
+          <cell r="Y12">
+            <v>5.3492687078385975E-4</v>
+          </cell>
+          <cell r="Z12">
+            <v>5.3822050220801482E-4</v>
+          </cell>
+          <cell r="AA12">
+            <v>5.415909477399552E-4</v>
+          </cell>
+          <cell r="AB12">
+            <v>5.4244022600549702E-4</v>
+          </cell>
+          <cell r="AC12">
+            <v>5.434069387641971E-4</v>
+          </cell>
+          <cell r="AD12">
+            <v>5.445137125691397E-4</v>
+          </cell>
+          <cell r="AE12">
+            <v>5.4552930253349977E-4</v>
+          </cell>
+          <cell r="AF12">
+            <v>5.4676335744935475E-4</v>
+          </cell>
+          <cell r="AG12">
+            <v>5.4775940209517973E-4</v>
+          </cell>
+          <cell r="AH12">
+            <v>5.4897755809767156E-4</v>
+          </cell>
+          <cell r="AI12">
+            <v>5.5041507848450628E-4</v>
+          </cell>
+          <cell r="AJ12">
+            <v>5.5181991641578218E-4</v>
+          </cell>
+          <cell r="AK12">
+            <v>5.5356591904673846E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>1.0629135687490201E-4</v>
+          </cell>
+          <cell r="E13">
+            <v>1.0901278138476584E-4</v>
+          </cell>
+          <cell r="F13">
+            <v>1.1090132468147135E-4</v>
+          </cell>
+          <cell r="G13">
+            <v>1.145933533242113E-4</v>
+          </cell>
+          <cell r="H13">
+            <v>1.2072218983200174E-4</v>
+          </cell>
+          <cell r="I13">
+            <v>1.2512852098310389E-4</v>
+          </cell>
+          <cell r="J13">
+            <v>1.2882497823807134E-4</v>
+          </cell>
+          <cell r="K13">
+            <v>1.3282574606745103E-4</v>
+          </cell>
+          <cell r="L13">
+            <v>1.3500815012928787E-4</v>
+          </cell>
+          <cell r="M13">
+            <v>1.3827101082951242E-4</v>
+          </cell>
+          <cell r="N13">
+            <v>1.4281480821123536E-4</v>
+          </cell>
+          <cell r="O13">
+            <v>1.4849189391458962E-4</v>
+          </cell>
+          <cell r="P13">
+            <v>1.5221505992553679E-4</v>
+          </cell>
+          <cell r="Q13">
+            <v>1.5302170840885955E-4</v>
+          </cell>
+          <cell r="R13">
+            <v>1.545461939776133E-4</v>
+          </cell>
+          <cell r="S13">
+            <v>1.5576821095175084E-4</v>
+          </cell>
+          <cell r="T13">
+            <v>1.5785664686997797E-4</v>
+          </cell>
+          <cell r="U13">
+            <v>1.5925219573451592E-4</v>
+          </cell>
+          <cell r="V13">
+            <v>1.5940730834881274E-4</v>
+          </cell>
+          <cell r="W13">
+            <v>1.5941967575438737E-4</v>
+          </cell>
+          <cell r="X13">
+            <v>1.6007675956157771E-4</v>
+          </cell>
+          <cell r="Y13">
+            <v>1.6085766515632741E-4</v>
+          </cell>
+          <cell r="Z13">
+            <v>1.6053843171620177E-4</v>
+          </cell>
+          <cell r="AA13">
+            <v>1.6039663424155488E-4</v>
+          </cell>
+          <cell r="AB13">
+            <v>1.600594905577296E-4</v>
+          </cell>
+          <cell r="AC13">
+            <v>1.5994610791426753E-4</v>
+          </cell>
+          <cell r="AD13">
+            <v>1.5954865720524053E-4</v>
+          </cell>
+          <cell r="AE13">
+            <v>1.5890756203755155E-4</v>
+          </cell>
+          <cell r="AF13">
+            <v>1.5825869366099308E-4</v>
+          </cell>
+          <cell r="AG13">
+            <v>1.5764624738230399E-4</v>
+          </cell>
+          <cell r="AH13">
+            <v>1.565554061179373E-4</v>
+          </cell>
+          <cell r="AI13">
+            <v>1.5558352667455766E-4</v>
+          </cell>
+          <cell r="AJ13">
+            <v>1.5454787161668808E-4</v>
+          </cell>
+          <cell r="AK13">
+            <v>1.5310096361050281E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="E14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="F14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="G14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="H14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="I14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="J14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="K14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="L14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="M14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="N14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="O14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="P14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="Q14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="R14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="S14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="T14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="U14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="V14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="W14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="X14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="Z14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AA14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AB14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AC14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AD14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AE14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AF14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AG14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AH14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AI14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AJ14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+          <cell r="AK14">
+            <v>2.1558990043642106E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="E15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="F15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="G15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="H15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="I15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="J15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="K15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="L15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="M15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="N15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="O15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="P15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="Q15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="R15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="S15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="T15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="U15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="V15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="W15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="X15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="Y15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="Z15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AA15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AB15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AC15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AD15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AE15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AF15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AG15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AH15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AI15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AJ15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+          <cell r="AK15">
+            <v>1.0487527988911182E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="E16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="F16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="G16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="H16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="I16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="J16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="K16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="L16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="M16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="N16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="O16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="P16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="Q16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="R16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="S16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="T16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="U16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="V16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="W16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="X16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="Y16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="Z16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AA16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AB16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AC16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AD16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AE16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AF16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AG16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AH16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AI16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AJ16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+          <cell r="AK16">
+            <v>7.0214683806076135E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="E17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="F17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="G17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="H17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="I17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="J17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="K17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="L17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="M17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="N17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="O17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="P17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="R17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="S17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="T17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="U17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="V17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="W17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="X17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="Y17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="Z17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AA17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AB17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AC17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AD17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AE17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AF17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AG17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AH17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AI17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AJ17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+          <cell r="AK17">
+            <v>1.9362141353943107E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>5.2992115229405527E-3</v>
+          </cell>
+          <cell r="E18">
+            <v>5.3934315680825738E-3</v>
+          </cell>
+          <cell r="F18">
+            <v>5.4328972597188054E-3</v>
+          </cell>
+          <cell r="G18">
+            <v>5.4639690719479918E-3</v>
+          </cell>
+          <cell r="H18">
+            <v>5.5418412974535475E-3</v>
+          </cell>
+          <cell r="I18">
+            <v>5.6194390279456462E-3</v>
+          </cell>
+          <cell r="J18">
+            <v>5.6977290697036269E-3</v>
+          </cell>
+          <cell r="K18">
+            <v>5.7753683101031145E-3</v>
+          </cell>
+          <cell r="L18">
+            <v>5.8065339689778806E-3</v>
+          </cell>
+          <cell r="M18">
+            <v>5.9168077326028174E-3</v>
+          </cell>
+          <cell r="N18">
+            <v>6.0262008784596468E-3</v>
+          </cell>
+          <cell r="O18">
+            <v>6.1333911053254144E-3</v>
+          </cell>
+          <cell r="P18">
+            <v>6.23926005928913E-3</v>
+          </cell>
+          <cell r="Q18">
+            <v>6.2631866999947458E-3</v>
+          </cell>
+          <cell r="R18">
+            <v>6.3166177586814537E-3</v>
+          </cell>
+          <cell r="S18">
+            <v>6.3698985412702644E-3</v>
+          </cell>
+          <cell r="T18">
+            <v>6.4221337603906021E-3</v>
+          </cell>
+          <cell r="U18">
+            <v>6.4770178768907465E-3</v>
+          </cell>
+          <cell r="V18">
+            <v>6.5040881848864238E-3</v>
+          </cell>
+          <cell r="W18">
+            <v>6.5657441588667436E-3</v>
+          </cell>
+          <cell r="X18">
+            <v>6.6279838592649453E-3</v>
+          </cell>
+          <cell r="Y18">
+            <v>6.6926091644649984E-3</v>
+          </cell>
+          <cell r="Z18">
+            <v>6.7592235851418906E-3</v>
+          </cell>
+          <cell r="AA18">
+            <v>6.8261740810624423E-3</v>
+          </cell>
+          <cell r="AB18">
+            <v>6.8617594497521082E-3</v>
+          </cell>
+          <cell r="AC18">
+            <v>6.9004780853928341E-3</v>
+          </cell>
+          <cell r="AD18">
+            <v>6.9410482983891979E-3</v>
+          </cell>
+          <cell r="AE18">
+            <v>6.9822916342727305E-3</v>
+          </cell>
+          <cell r="AF18">
+            <v>7.0276191171519658E-3</v>
+          </cell>
+          <cell r="AG18">
+            <v>7.0718499244147234E-3</v>
+          </cell>
+          <cell r="AH18">
+            <v>7.1189794928731096E-3</v>
+          </cell>
+          <cell r="AI18">
+            <v>7.1700377368293525E-3</v>
+          </cell>
+          <cell r="AJ18">
+            <v>7.221347583681044E-3</v>
+          </cell>
+          <cell r="AK18">
+            <v>7.2762043320700196E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="E19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="F19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="G19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="H19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="I19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="J19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="K19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="L19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="M19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="N19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="O19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="P19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="Q19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="R19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="S19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="T19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="U19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="V19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="W19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="X19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="Y19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="Z19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AA19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AB19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AC19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AD19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AE19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AF19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AG19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AH19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AI19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AJ19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+          <cell r="AK19">
+            <v>1.5431879298095457E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="E20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="F20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="G20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="H20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="I20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="J20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="K20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="L20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="M20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="N20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="O20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="P20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="Q20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="R20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="S20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="T20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="U20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="V20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="W20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="X20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="Y20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="Z20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AA20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AB20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AC20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AD20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AE20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AF20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AG20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AH20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AI20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AJ20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+          <cell r="AK20">
+            <v>1.1883392852619099E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1693,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1898,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS18"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1909,7 +3316,7 @@
     <col min="1" max="1" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:72">
       <c r="C1">
         <v>1982</v>
       </c>
@@ -2012,8 +3419,113 @@
       <c r="AJ1" s="12">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:71">
+      <c r="AK1">
+        <v>2016</v>
+      </c>
+      <c r="AL1">
+        <v>2017</v>
+      </c>
+      <c r="AM1">
+        <v>2018</v>
+      </c>
+      <c r="AN1">
+        <v>2019</v>
+      </c>
+      <c r="AO1">
+        <v>2020</v>
+      </c>
+      <c r="AP1">
+        <v>2021</v>
+      </c>
+      <c r="AQ1">
+        <v>2022</v>
+      </c>
+      <c r="AR1">
+        <v>2023</v>
+      </c>
+      <c r="AS1">
+        <v>2024</v>
+      </c>
+      <c r="AT1">
+        <v>2025</v>
+      </c>
+      <c r="AU1">
+        <v>2026</v>
+      </c>
+      <c r="AV1">
+        <v>2027</v>
+      </c>
+      <c r="AW1">
+        <v>2028</v>
+      </c>
+      <c r="AX1">
+        <v>2029</v>
+      </c>
+      <c r="AY1">
+        <v>2030</v>
+      </c>
+      <c r="AZ1">
+        <v>2031</v>
+      </c>
+      <c r="BA1">
+        <v>2032</v>
+      </c>
+      <c r="BB1">
+        <v>2033</v>
+      </c>
+      <c r="BC1">
+        <v>2034</v>
+      </c>
+      <c r="BD1">
+        <v>2035</v>
+      </c>
+      <c r="BE1">
+        <v>2036</v>
+      </c>
+      <c r="BF1">
+        <v>2037</v>
+      </c>
+      <c r="BG1">
+        <v>2038</v>
+      </c>
+      <c r="BH1">
+        <v>2039</v>
+      </c>
+      <c r="BI1">
+        <v>2040</v>
+      </c>
+      <c r="BJ1">
+        <v>2041</v>
+      </c>
+      <c r="BK1">
+        <v>2042</v>
+      </c>
+      <c r="BL1">
+        <v>2043</v>
+      </c>
+      <c r="BM1">
+        <v>2044</v>
+      </c>
+      <c r="BN1">
+        <v>2045</v>
+      </c>
+      <c r="BO1">
+        <v>2046</v>
+      </c>
+      <c r="BP1">
+        <v>2047</v>
+      </c>
+      <c r="BQ1">
+        <v>2048</v>
+      </c>
+      <c r="BR1">
+        <v>2049</v>
+      </c>
+      <c r="BS1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2040,155 +3552,205 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2">
+      <c r="W2" s="16">
+        <f t="shared" ref="W2:AJ2" si="0">X2</f>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="16">
+        <f t="shared" si="0"/>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="16">
+        <f>AL2</f>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="23">
+        <f>[2]BNVFE!D8</f>
         <v>6.3882446012192978E-4</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="23">
+        <f>[2]BNVFE!E8</f>
         <v>6.574596268394961E-4</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="23">
+        <f>[2]BNVFE!F8</f>
         <v>6.7609479355706936E-4</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="23">
+        <f>[2]BNVFE!G8</f>
         <v>6.9472996027463568E-4</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="23">
+        <f>[2]BNVFE!H8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="23">
+        <f>[2]BNVFE!I8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="23">
+        <f>[2]BNVFE!J8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="23">
+        <f>[2]BNVFE!K8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="23">
+        <f>[2]BNVFE!L8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="23">
+        <f>[2]BNVFE!M8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="23">
+        <f>[2]BNVFE!N8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="23">
+        <f>[2]BNVFE!O8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="23">
+        <f>[2]BNVFE!P8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="23">
+        <f>[2]BNVFE!Q8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="23">
+        <f>[2]BNVFE!R8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="23">
+        <f>[2]BNVFE!S8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="23">
+        <f>[2]BNVFE!T8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="23">
+        <f>[2]BNVFE!U8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="23">
+        <f>[2]BNVFE!V8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="23">
+        <f>[2]BNVFE!W8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="23">
+        <f>[2]BNVFE!X8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="23">
+        <f>[2]BNVFE!Y8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="23">
+        <f>[2]BNVFE!Z8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="23">
+        <f>[2]BNVFE!AA8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="23">
+        <f>[2]BNVFE!AB8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="23">
+        <f>[2]BNVFE!AC8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="23">
+        <f>[2]BNVFE!AD8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="23">
+        <f>[2]BNVFE!AE8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="23">
+        <f>[2]BNVFE!AF8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="23">
+        <f>[2]BNVFE!AG8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="23">
+        <f>[2]BNVFE!AH8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="23">
+        <f>[2]BNVFE!AI8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="23">
+        <f>[2]BNVFE!AJ8</f>
         <v>7.133651269922097E-4</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="23">
+        <f>[2]BNVFE!AK8</f>
         <v>7.133651269922097E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:71">
+      <c r="BT2" s="18"/>
+    </row>
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2216,154 +3778,204 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="15">
+        <f t="shared" ref="W3:AJ5" si="1">$AK3</f>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="X3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="Y3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="Z3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AA3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AB3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AC3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AD3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AE3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AF3" s="15">
+        <f t="shared" si="1"/>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AG3" s="15">
+        <f>$AK3</f>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AH3" s="15">
+        <f t="shared" ref="AH3:AJ3" si="2">$AK3</f>
         <v>3.4165027849915303E-4</v>
       </c>
       <c r="AI3" s="15">
+        <f t="shared" si="2"/>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="16">
+        <f t="shared" si="2"/>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="24">
+        <f>[2]BNVFE!D9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="23">
+        <f>[2]BNVFE!D9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="23">
+        <f>[2]BNVFE!E9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="23">
+        <f>[2]BNVFE!F9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="23">
+        <f>[2]BNVFE!G9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="23">
+        <f>[2]BNVFE!H9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="23">
+        <f>[2]BNVFE!I9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="23">
+        <f>[2]BNVFE!J9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="23">
+        <f>[2]BNVFE!K9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="23">
+        <f>[2]BNVFE!L9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="23">
+        <f>[2]BNVFE!M9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="23">
+        <f>[2]BNVFE!N9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="23">
+        <f>[2]BNVFE!O9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="23">
+        <f>[2]BNVFE!P9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="23">
+        <f>[2]BNVFE!Q9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="23">
+        <f>[2]BNVFE!R9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="23">
+        <f>[2]BNVFE!S9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="23">
+        <f>[2]BNVFE!T9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="23">
+        <f>[2]BNVFE!U9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="23">
+        <f>[2]BNVFE!V9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="23">
+        <f>[2]BNVFE!W9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="23">
+        <f>[2]BNVFE!X9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="23">
+        <f>[2]BNVFE!Y9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="23">
+        <f>[2]BNVFE!Z9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="23">
+        <f>[2]BNVFE!AA9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="23">
+        <f>[2]BNVFE!AB9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="23">
+        <f>[2]BNVFE!AC9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="23">
+        <f>[2]BNVFE!AD9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="23">
+        <f>[2]BNVFE!AE9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="23">
+        <f>[2]BNVFE!AF9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="23">
+        <f>[2]BNVFE!AG9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="23">
+        <f>[2]BNVFE!AH9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="23">
+        <f>[2]BNVFE!AI9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="23">
+        <f>[2]BNVFE!AJ9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="23">
+        <f>[2]BNVFE!AK9</f>
         <v>3.4165027849915303E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:71">
+      <c r="BT3" s="18"/>
+    </row>
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2395,142 +4007,188 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AB4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AC4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AD4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AE4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AF4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AG4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AH4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AI4" s="15">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
       <c r="AJ4" s="16">
+        <f t="shared" si="1"/>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="24">
+        <f>[2]BNVFE!D10</f>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="23">
+        <f>[2]BNVFE!D10</f>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="23">
+        <f>[2]BNVFE!E10</f>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="23">
+        <f>[2]BNVFE!F10</f>
         <v>4.4435571578869126E-3</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="23">
+        <f>[2]BNVFE!G10</f>
         <v>4.7193641538936237E-3</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="23">
+        <f>[2]BNVFE!H10</f>
         <v>4.9951711499004459E-3</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="23">
+        <f>[2]BNVFE!I10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="23">
+        <f>[2]BNVFE!J10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="23">
+        <f>[2]BNVFE!K10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="23">
+        <f>[2]BNVFE!L10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="23">
+        <f>[2]BNVFE!M10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="23">
+        <f>[2]BNVFE!N10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="23">
+        <f>[2]BNVFE!O10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="23">
+        <f>[2]BNVFE!P10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="23">
+        <f>[2]BNVFE!Q10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="23">
+        <f>[2]BNVFE!R10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="23">
+        <f>[2]BNVFE!S10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="23">
+        <f>[2]BNVFE!T10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="23">
+        <f>[2]BNVFE!U10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="23">
+        <f>[2]BNVFE!V10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="23">
+        <f>[2]BNVFE!W10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="23">
+        <f>[2]BNVFE!X10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="23">
+        <f>[2]BNVFE!Y10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="23">
+        <f>[2]BNVFE!Z10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="23">
+        <f>[2]BNVFE!AA10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="23">
+        <f>[2]BNVFE!AB10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="23">
+        <f>[2]BNVFE!AC10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="23">
+        <f>[2]BNVFE!AD10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="23">
+        <f>[2]BNVFE!AE10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="23">
+        <f>[2]BNVFE!AF10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="23">
+        <f>[2]BNVFE!AG10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="23">
+        <f>[2]BNVFE!AH10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="23">
+        <f>[2]BNVFE!AI10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="23">
+        <f>[2]BNVFE!AJ10</f>
         <v>5.270978145907157E-3</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="23">
+        <f>[2]BNVFE!AK10</f>
         <v>5.270978145907157E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:71">
+      <c r="BT4" s="18"/>
+    </row>
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2562,142 +4220,188 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AB5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AC5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AD5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AE5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AF5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AG5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AH5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AI5" s="15">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
       <c r="AJ5" s="16">
+        <f t="shared" si="1"/>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="24">
+        <f>[2]BNVFE!D11</f>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="23">
+        <f>[2]BNVFE!D11</f>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="23">
+        <f>[2]BNVFE!E11</f>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="23">
+        <f>[2]BNVFE!F11</f>
         <v>4.5132431462293482E-4</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="23">
+        <f>[2]BNVFE!G11</f>
         <v>4.7628468868221585E-4</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="23">
+        <f>[2]BNVFE!H11</f>
         <v>5.0124506274149688E-4</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="23">
+        <f>[2]BNVFE!I11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="23">
+        <f>[2]BNVFE!J11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="23">
+        <f>[2]BNVFE!K11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="23">
+        <f>[2]BNVFE!L11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="23">
+        <f>[2]BNVFE!M11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="23">
+        <f>[2]BNVFE!N11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="23">
+        <f>[2]BNVFE!O11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="23">
+        <f>[2]BNVFE!P11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="23">
+        <f>[2]BNVFE!Q11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="23">
+        <f>[2]BNVFE!R11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="23">
+        <f>[2]BNVFE!S11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="23">
+        <f>[2]BNVFE!T11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="23">
+        <f>[2]BNVFE!U11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="23">
+        <f>[2]BNVFE!V11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="23">
+        <f>[2]BNVFE!W11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="23">
+        <f>[2]BNVFE!X11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="23">
+        <f>[2]BNVFE!Y11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="23">
+        <f>[2]BNVFE!Z11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="23">
+        <f>[2]BNVFE!AA11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="23">
+        <f>[2]BNVFE!AB11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="23">
+        <f>[2]BNVFE!AC11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="23">
+        <f>[2]BNVFE!AD11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="23">
+        <f>[2]BNVFE!AE11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="23">
+        <f>[2]BNVFE!AF11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="23">
+        <f>[2]BNVFE!AG11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="23">
+        <f>[2]BNVFE!AH11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="23">
+        <f>[2]BNVFE!AI11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="23">
+        <f>[2]BNVFE!AJ11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="23">
+        <f>[2]BNVFE!AK11</f>
         <v>5.2620543680078485E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:71">
+      <c r="BT5" s="18"/>
+    </row>
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2719,172 +4423,228 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="18">
+        <f t="shared" ref="Q6:AX13" si="3">TREND($AK6:$BS6,$AK$1:$BS$1,Q$1)</f>
         <v>4.3772593496740637E-4</v>
       </c>
       <c r="R6" s="18">
+        <f t="shared" si="3"/>
         <v>4.3997234608807861E-4</v>
       </c>
       <c r="S6" s="18">
+        <f t="shared" si="3"/>
         <v>4.4221875720874999E-4</v>
       </c>
       <c r="T6" s="18">
+        <f t="shared" si="3"/>
         <v>4.4446516832942137E-4</v>
       </c>
       <c r="U6" s="18">
+        <f t="shared" si="3"/>
         <v>4.4671157945009275E-4</v>
       </c>
       <c r="V6" s="18">
+        <f t="shared" si="3"/>
         <v>4.4895799057076413E-4</v>
       </c>
       <c r="W6" s="18">
+        <f t="shared" si="3"/>
         <v>4.5120440169143551E-4</v>
       </c>
       <c r="X6" s="18">
+        <f t="shared" si="3"/>
         <v>4.5345081281210689E-4</v>
       </c>
       <c r="Y6" s="18">
+        <f t="shared" si="3"/>
         <v>4.5569722393277827E-4</v>
       </c>
       <c r="Z6" s="18">
+        <f t="shared" si="3"/>
         <v>4.5794363505344965E-4</v>
       </c>
       <c r="AA6" s="18">
+        <f t="shared" si="3"/>
         <v>4.6019004617412103E-4</v>
       </c>
       <c r="AB6" s="18">
+        <f t="shared" si="3"/>
         <v>4.6243645729479241E-4</v>
       </c>
       <c r="AC6" s="18">
+        <f t="shared" si="3"/>
         <v>4.6468286841546465E-4</v>
       </c>
       <c r="AD6" s="18">
+        <f t="shared" si="3"/>
         <v>4.6692927953613603E-4</v>
       </c>
       <c r="AE6" s="18">
+        <f t="shared" si="3"/>
         <v>4.6917569065680741E-4</v>
       </c>
       <c r="AF6" s="18">
+        <f t="shared" si="3"/>
         <v>4.7142210177747879E-4</v>
       </c>
       <c r="AG6" s="18">
+        <f t="shared" si="3"/>
         <v>4.7366851289815017E-4</v>
       </c>
       <c r="AH6" s="18">
+        <f t="shared" si="3"/>
         <v>4.7591492401882155E-4</v>
       </c>
       <c r="AI6" s="18">
+        <f t="shared" si="3"/>
         <v>4.7816133513949293E-4</v>
       </c>
       <c r="AJ6" s="16">
+        <f t="shared" si="3"/>
         <v>4.8040774626016431E-4</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="24">
+        <f>[2]BNVFE!D12</f>
         <v>4.8763028027001322E-4</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="23">
+        <f>[2]BNVFE!D12</f>
         <v>4.8763028027001322E-4</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="23">
+        <f>[2]BNVFE!E12</f>
         <v>4.9028662068749482E-4</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="23">
+        <f>[2]BNVFE!F12</f>
         <v>4.8860949054331819E-4</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="23">
+        <f>[2]BNVFE!G12</f>
         <v>4.8612287650563534E-4</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="23">
+        <f>[2]BNVFE!H12</f>
         <v>4.876857048740875E-4</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="23">
+        <f>[2]BNVFE!I12</f>
         <v>4.9009396659068839E-4</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="23">
+        <f>[2]BNVFE!J12</f>
         <v>4.9304194209053107E-4</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="23">
+        <f>[2]BNVFE!K12</f>
         <v>4.9594337968184054E-4</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="23">
+        <f>[2]BNVFE!L12</f>
         <v>4.9499013028162593E-4</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="23">
+        <f>[2]BNVFE!M12</f>
         <v>5.0117685965480371E-4</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="23">
+        <f>[2]BNVFE!N12</f>
         <v>5.0707771375029019E-4</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="23">
+        <f>[2]BNVFE!O12</f>
         <v>5.1258184899585606E-4</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="23">
+        <f>[2]BNVFE!P12</f>
         <v>5.1867213888701991E-4</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="23">
+        <f>[2]BNVFE!Q12</f>
         <v>5.1815676220404964E-4</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="23">
+        <f>[2]BNVFE!R12</f>
         <v>5.2013387416039543E-4</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="23">
+        <f>[2]BNVFE!S12</f>
         <v>5.2225078660338446E-4</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="23">
+        <f>[2]BNVFE!T12</f>
         <v>5.2415984978515908E-4</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="23">
+        <f>[2]BNVFE!U12</f>
         <v>5.2625237830630257E-4</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="23">
+        <f>[2]BNVFE!V12</f>
         <v>5.2613088937030199E-4</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="23">
+        <f>[2]BNVFE!W12</f>
         <v>5.2894572464731119E-4</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="23">
+        <f>[2]BNVFE!X12</f>
         <v>5.320068947752513E-4</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="23">
+        <f>[2]BNVFE!Y12</f>
         <v>5.3492687078385975E-4</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="23">
+        <f>[2]BNVFE!Z12</f>
         <v>5.3822050220801482E-4</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="23">
+        <f>[2]BNVFE!AA12</f>
         <v>5.415909477399552E-4</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="23">
+        <f>[2]BNVFE!AB12</f>
         <v>5.4244022600549702E-4</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="23">
+        <f>[2]BNVFE!AC12</f>
         <v>5.434069387641971E-4</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="23">
+        <f>[2]BNVFE!AD12</f>
         <v>5.445137125691397E-4</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="23">
+        <f>[2]BNVFE!AE12</f>
         <v>5.4552930253349977E-4</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="23">
+        <f>[2]BNVFE!AF12</f>
         <v>5.4676335744935475E-4</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="23">
+        <f>[2]BNVFE!AG12</f>
         <v>5.4775940209517973E-4</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="23">
+        <f>[2]BNVFE!AH12</f>
         <v>5.4897755809767156E-4</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="23">
+        <f>[2]BNVFE!AI12</f>
         <v>5.5041507848450628E-4</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="23">
+        <f>[2]BNVFE!AJ12</f>
         <v>5.5181991641578218E-4</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="23">
+        <f>[2]BNVFE!AK12</f>
         <v>5.5356591904673846E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:71">
+      <c r="BT6" s="18"/>
+    </row>
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2906,1218 +4666,1670 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="18">
+        <f t="shared" ref="Q7:AI7" si="4">TREND($AK7:$BS7,$AK$1:$BS$1,Q$1)-($AO7-$AK7)</f>
         <v>8.0797052950278472E-5</v>
       </c>
       <c r="R7" s="18">
+        <f t="shared" si="4"/>
         <v>8.2316915313046646E-5</v>
       </c>
       <c r="S7" s="18">
+        <f t="shared" si="4"/>
         <v>8.3836777675815253E-5</v>
       </c>
       <c r="T7" s="18">
+        <f t="shared" si="4"/>
         <v>8.5356640038583426E-5</v>
       </c>
       <c r="U7" s="18">
+        <f t="shared" si="4"/>
         <v>8.68765024013516E-5</v>
       </c>
       <c r="V7" s="18">
+        <f t="shared" si="4"/>
         <v>8.8396364764119773E-5</v>
       </c>
       <c r="W7" s="18">
+        <f t="shared" si="4"/>
         <v>8.9916227126887946E-5</v>
       </c>
       <c r="X7" s="18">
+        <f t="shared" si="4"/>
         <v>9.143608948965612E-5</v>
       </c>
       <c r="Y7" s="18">
+        <f t="shared" si="4"/>
         <v>9.2955951852424293E-5</v>
       </c>
       <c r="Z7" s="18">
+        <f t="shared" si="4"/>
         <v>9.4475814215192467E-5</v>
       </c>
       <c r="AA7" s="18">
+        <f t="shared" si="4"/>
         <v>9.599567657796064E-5</v>
       </c>
       <c r="AB7" s="18">
+        <f t="shared" si="4"/>
         <v>9.7515538940728814E-5</v>
       </c>
       <c r="AC7" s="18">
+        <f t="shared" si="4"/>
         <v>9.9035401303496987E-5</v>
       </c>
       <c r="AD7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0055526366626516E-4</v>
       </c>
       <c r="AE7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0207512602903333E-4</v>
       </c>
       <c r="AF7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0359498839180151E-4</v>
       </c>
       <c r="AG7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0511485075457011E-4</v>
       </c>
       <c r="AH7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0663471311733829E-4</v>
       </c>
       <c r="AI7" s="18">
+        <f t="shared" si="4"/>
         <v>1.0815457548010646E-4</v>
       </c>
       <c r="AJ7" s="16">
+        <f>TREND($AK7:$BS7,$AK$1:$BS$1,AJ$1)-($AO7-$AK7)</f>
         <v>1.0967443784287463E-4</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="24">
+        <f>[2]BNVFE!D13</f>
         <v>1.0629135687490201E-4</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="23">
+        <f>[2]BNVFE!D13</f>
         <v>1.0629135687490201E-4</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="23">
+        <f>[2]BNVFE!E13</f>
         <v>1.0901278138476584E-4</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="23">
+        <f>[2]BNVFE!F13</f>
         <v>1.1090132468147135E-4</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="23">
+        <f>[2]BNVFE!G13</f>
         <v>1.145933533242113E-4</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="23">
+        <f>[2]BNVFE!H13</f>
         <v>1.2072218983200174E-4</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="23">
+        <f>[2]BNVFE!I13</f>
         <v>1.2512852098310389E-4</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="23">
+        <f>[2]BNVFE!J13</f>
         <v>1.2882497823807134E-4</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="23">
+        <f>[2]BNVFE!K13</f>
         <v>1.3282574606745103E-4</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="23">
+        <f>[2]BNVFE!L13</f>
         <v>1.3500815012928787E-4</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="23">
+        <f>[2]BNVFE!M13</f>
         <v>1.3827101082951242E-4</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="23">
+        <f>[2]BNVFE!N13</f>
         <v>1.4281480821123536E-4</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="23">
+        <f>[2]BNVFE!O13</f>
         <v>1.4849189391458962E-4</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="23">
+        <f>[2]BNVFE!P13</f>
         <v>1.5221505992553679E-4</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="23">
+        <f>[2]BNVFE!Q13</f>
         <v>1.5302170840885955E-4</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="23">
+        <f>[2]BNVFE!R13</f>
         <v>1.545461939776133E-4</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="23">
+        <f>[2]BNVFE!S13</f>
         <v>1.5576821095175084E-4</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="23">
+        <f>[2]BNVFE!T13</f>
         <v>1.5785664686997797E-4</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="23">
+        <f>[2]BNVFE!U13</f>
         <v>1.5925219573451592E-4</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="23">
+        <f>[2]BNVFE!V13</f>
         <v>1.5940730834881274E-4</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="23">
+        <f>[2]BNVFE!W13</f>
         <v>1.5941967575438737E-4</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="23">
+        <f>[2]BNVFE!X13</f>
         <v>1.6007675956157771E-4</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="23">
+        <f>[2]BNVFE!Y13</f>
         <v>1.6085766515632741E-4</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="23">
+        <f>[2]BNVFE!Z13</f>
         <v>1.6053843171620177E-4</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="23">
+        <f>[2]BNVFE!AA13</f>
         <v>1.6039663424155488E-4</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="23">
+        <f>[2]BNVFE!AB13</f>
         <v>1.600594905577296E-4</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="23">
+        <f>[2]BNVFE!AC13</f>
         <v>1.5994610791426753E-4</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="23">
+        <f>[2]BNVFE!AD13</f>
         <v>1.5954865720524053E-4</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="23">
+        <f>[2]BNVFE!AE13</f>
         <v>1.5890756203755155E-4</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="23">
+        <f>[2]BNVFE!AF13</f>
         <v>1.5825869366099308E-4</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="23">
+        <f>[2]BNVFE!AG13</f>
         <v>1.5764624738230399E-4</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="23">
+        <f>[2]BNVFE!AH13</f>
         <v>1.565554061179373E-4</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" s="23">
+        <f>[2]BNVFE!AI13</f>
         <v>1.5558352667455766E-4</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" s="23">
+        <f>[2]BNVFE!AJ13</f>
         <v>1.5454787161668808E-4</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" s="23">
+        <f>[2]BNVFE!AK13</f>
         <v>1.5310096361050281E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:71">
+      <c r="BT7" s="18"/>
+    </row>
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="E8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="F8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="I8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="J8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="K8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="L8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="M8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="N8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="O8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="P8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="R8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="S8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="T8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="U8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="V8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="W8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="X8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AJ8" s="16">
-        <v>2.4412212193692241E-3</v>
-      </c>
-      <c r="AK8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AL8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AM8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AN8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AO8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AP8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AQ8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AR8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AS8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AT8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AU8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AV8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AW8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AX8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AY8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="AZ8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BA8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BB8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BC8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BD8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BE8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BF8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BG8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BH8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BI8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BJ8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BK8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BL8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BM8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BN8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BO8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BP8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BQ8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BR8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-      <c r="BS8">
-        <v>2.4412212193692232E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71">
+      <c r="C8" s="22">
+        <f t="shared" ref="C8:AI13" si="5">TREND($AK8:$BS8,$AK$1:$BS$1,C$1)</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="S8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="W8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Y8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AA8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AB8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AC8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AE8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AF8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AG8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AH8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AI8" s="22">
+        <f t="shared" si="5"/>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AJ8" s="22">
+        <f>TREND($AK8:$BS8,$AK$1:$BS$1,AJ$1)</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AK8" s="24">
+        <f>[2]BNVFE!D14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AL8" s="24">
+        <f>[2]BNVFE!D14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AM8" s="24">
+        <f>[2]BNVFE!E14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AN8" s="24">
+        <f>[2]BNVFE!F14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AO8" s="24">
+        <f>[2]BNVFE!G14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AP8" s="24">
+        <f>[2]BNVFE!H14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AQ8" s="24">
+        <f>[2]BNVFE!I14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AR8" s="24">
+        <f>[2]BNVFE!J14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AS8" s="24">
+        <f>[2]BNVFE!K14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AT8" s="24">
+        <f>[2]BNVFE!L14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AU8" s="24">
+        <f>[2]BNVFE!M14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AV8" s="24">
+        <f>[2]BNVFE!N14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AW8" s="24">
+        <f>[2]BNVFE!O14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AX8" s="24">
+        <f>[2]BNVFE!P14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AY8" s="24">
+        <f>[2]BNVFE!Q14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="AZ8" s="24">
+        <f>[2]BNVFE!R14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BA8" s="24">
+        <f>[2]BNVFE!S14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BB8" s="24">
+        <f>[2]BNVFE!T14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BC8" s="24">
+        <f>[2]BNVFE!U14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BD8" s="24">
+        <f>[2]BNVFE!V14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BE8" s="24">
+        <f>[2]BNVFE!W14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BF8" s="24">
+        <f>[2]BNVFE!X14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BG8" s="24">
+        <f>[2]BNVFE!Y14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BH8" s="24">
+        <f>[2]BNVFE!Z14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BI8" s="24">
+        <f>[2]BNVFE!AA14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BJ8" s="24">
+        <f>[2]BNVFE!AB14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BK8" s="24">
+        <f>[2]BNVFE!AC14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BL8" s="24">
+        <f>[2]BNVFE!AD14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BM8" s="24">
+        <f>[2]BNVFE!AE14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BN8" s="24">
+        <f>[2]BNVFE!AF14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BO8" s="24">
+        <f>[2]BNVFE!AG14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BP8" s="24">
+        <f>[2]BNVFE!AH14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BQ8" s="24">
+        <f>[2]BNVFE!AI14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BR8" s="24">
+        <f>[2]BNVFE!AJ14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BS8" s="24">
+        <f>[2]BNVFE!AK14</f>
+        <v>2.1558990043642106E-3</v>
+      </c>
+      <c r="BT8" s="18"/>
+    </row>
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="F9" s="18">
+        <f>TREND($AK9:$BS9,$AK$1:$BS$1,F$1)</f>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="V9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="W9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="X9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="Z9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AA9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AB9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AC9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AD9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AE9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AF9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AG9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AH9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AI9" s="18">
+        <f t="shared" si="5"/>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AJ9" s="16">
+        <f t="shared" ref="AJ9:BQ14" si="6">TREND($AK9:$BS9,$AK$1:$BS$1,AJ$1)</f>
+        <v>1.0487527988911177E-2</v>
+      </c>
+      <c r="AK9" s="24">
+        <f>[2]BNVFE!D15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AL9" s="23">
+        <f>[2]BNVFE!D15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AM9" s="23">
+        <f>[2]BNVFE!E15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AN9" s="23">
+        <f>[2]BNVFE!F15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AO9" s="23">
+        <f>[2]BNVFE!G15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AP9" s="23">
+        <f>[2]BNVFE!H15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AQ9" s="23">
+        <f>[2]BNVFE!I15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AR9" s="23">
+        <f>[2]BNVFE!J15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AS9" s="23">
+        <f>[2]BNVFE!K15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AT9" s="23">
+        <f>[2]BNVFE!L15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AU9" s="23">
+        <f>[2]BNVFE!M15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AV9" s="23">
+        <f>[2]BNVFE!N15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AW9" s="23">
+        <f>[2]BNVFE!O15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AX9" s="23">
+        <f>[2]BNVFE!P15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AY9" s="23">
+        <f>[2]BNVFE!Q15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="AZ9" s="23">
+        <f>[2]BNVFE!R15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BA9" s="23">
+        <f>[2]BNVFE!S15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BB9" s="23">
+        <f>[2]BNVFE!T15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BC9" s="23">
+        <f>[2]BNVFE!U15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BD9" s="23">
+        <f>[2]BNVFE!V15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BE9" s="23">
+        <f>[2]BNVFE!W15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BF9" s="23">
+        <f>[2]BNVFE!X15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BG9" s="23">
+        <f>[2]BNVFE!Y15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BH9" s="23">
+        <f>[2]BNVFE!Z15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BI9" s="23">
+        <f>[2]BNVFE!AA15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BJ9" s="23">
+        <f>[2]BNVFE!AB15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BK9" s="23">
+        <f>[2]BNVFE!AC15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BL9" s="23">
+        <f>[2]BNVFE!AD15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BM9" s="23">
+        <f>[2]BNVFE!AE15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BN9" s="23">
+        <f>[2]BNVFE!AF15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BO9" s="23">
+        <f>[2]BNVFE!AG15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BP9" s="23">
+        <f>[2]BNVFE!AH15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BQ9" s="23">
+        <f>[2]BNVFE!AI15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BR9" s="23">
+        <f>[2]BNVFE!AJ15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BS9" s="23">
+        <f>[2]BNVFE!AK15</f>
+        <v>1.0487527988911182E-2</v>
+      </c>
+      <c r="BT9" s="18"/>
+    </row>
+    <row r="10" spans="1:72">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F10" s="18">
+        <f>TREND($AK10:$BS10,$AK$1:$BS$1,F$1)</f>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AG10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AI9" s="18">
+      <c r="AI10" s="18">
+        <f t="shared" si="5"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AJ9" s="16">
+      <c r="AJ10" s="16">
+        <f t="shared" si="6"/>
         <v>7.0214683806076091E-3</v>
       </c>
-      <c r="AK9">
+      <c r="AK10" s="24">
+        <f>[2]BNVFE!D16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AL9">
+      <c r="AL10" s="23">
+        <f>[2]BNVFE!D16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AM9">
+      <c r="AM10" s="23">
+        <f>[2]BNVFE!E16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AN9">
+      <c r="AN10" s="23">
+        <f>[2]BNVFE!F16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AO9">
+      <c r="AO10" s="23">
+        <f>[2]BNVFE!G16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AP9">
+      <c r="AP10" s="23">
+        <f>[2]BNVFE!H16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ10" s="23">
+        <f>[2]BNVFE!I16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AR9">
+      <c r="AR10" s="23">
+        <f>[2]BNVFE!J16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AS9">
+      <c r="AS10" s="23">
+        <f>[2]BNVFE!K16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AT9">
+      <c r="AT10" s="23">
+        <f>[2]BNVFE!L16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AU9">
+      <c r="AU10" s="23">
+        <f>[2]BNVFE!M16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AV9">
+      <c r="AV10" s="23">
+        <f>[2]BNVFE!N16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AW9">
+      <c r="AW10" s="23">
+        <f>[2]BNVFE!O16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AX9">
+      <c r="AX10" s="23">
+        <f>[2]BNVFE!P16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AY9">
+      <c r="AY10" s="23">
+        <f>[2]BNVFE!Q16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ10" s="23">
+        <f>[2]BNVFE!R16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BA9">
+      <c r="BA10" s="23">
+        <f>[2]BNVFE!S16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BB9">
+      <c r="BB10" s="23">
+        <f>[2]BNVFE!T16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BC9">
+      <c r="BC10" s="23">
+        <f>[2]BNVFE!U16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BD9">
+      <c r="BD10" s="23">
+        <f>[2]BNVFE!V16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BE9">
+      <c r="BE10" s="23">
+        <f>[2]BNVFE!W16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BF9">
+      <c r="BF10" s="23">
+        <f>[2]BNVFE!X16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BG9">
+      <c r="BG10" s="23">
+        <f>[2]BNVFE!Y16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BH9">
+      <c r="BH10" s="23">
+        <f>[2]BNVFE!Z16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BI9">
+      <c r="BI10" s="23">
+        <f>[2]BNVFE!AA16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ10" s="23">
+        <f>[2]BNVFE!AB16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BK9">
+      <c r="BK10" s="23">
+        <f>[2]BNVFE!AC16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BL9">
+      <c r="BL10" s="23">
+        <f>[2]BNVFE!AD16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BM9">
+      <c r="BM10" s="23">
+        <f>[2]BNVFE!AE16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BN9">
+      <c r="BN10" s="23">
+        <f>[2]BNVFE!AF16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BO9">
+      <c r="BO10" s="23">
+        <f>[2]BNVFE!AG16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BP9">
+      <c r="BP10" s="23">
+        <f>[2]BNVFE!AH16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ10" s="23">
+        <f>[2]BNVFE!AI16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BR9">
+      <c r="BR10" s="23">
+        <f>[2]BNVFE!AJ16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-      <c r="BS9">
+      <c r="BS10" s="23">
+        <f>[2]BNVFE!AK16</f>
         <v>7.0214683806076135E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:71">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="L10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="N10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="O10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="P10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="R10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="S10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="T10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="U10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="V10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="W10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="X10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AC10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AF10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AG10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AH10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AI10" s="18">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AJ10" s="16">
-        <v>1.9362141353943097E-4</v>
-      </c>
-      <c r="AK10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AL10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AM10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AN10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AO10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AP10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AQ10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AR10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AS10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AT10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AU10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AV10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AW10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AX10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AY10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="AZ10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BA10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BB10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BC10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BD10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BE10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BF10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BG10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BH10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BI10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BJ10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BK10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BL10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BM10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BN10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BO10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BP10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BQ10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BR10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-      <c r="BS10">
-        <v>1.9362141353943107E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
+      <c r="BT10" s="18"/>
+    </row>
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="18">
+        <f t="shared" ref="D11" si="7">$AK11</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="W11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="X11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="Y11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="Z11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AA11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AB11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AC11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AD11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AE11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AF11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AG11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AH11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AI11" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AJ11" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9362141353943097E-4</v>
+      </c>
+      <c r="AK11" s="24">
+        <f>[2]BNVFE!D17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AL11" s="23">
+        <f>[2]BNVFE!D17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AM11" s="23">
+        <f>[2]BNVFE!E17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AN11" s="23">
+        <f>[2]BNVFE!F17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AO11" s="23">
+        <f>[2]BNVFE!G17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AP11" s="23">
+        <f>[2]BNVFE!H17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AQ11" s="23">
+        <f>[2]BNVFE!I17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AR11" s="23">
+        <f>[2]BNVFE!J17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AS11" s="23">
+        <f>[2]BNVFE!K17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AT11" s="23">
+        <f>[2]BNVFE!L17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AU11" s="23">
+        <f>[2]BNVFE!M17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AV11" s="23">
+        <f>[2]BNVFE!N17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AW11" s="23">
+        <f>[2]BNVFE!O17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AX11" s="23">
+        <f>[2]BNVFE!P17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AY11" s="23">
+        <f>[2]BNVFE!Q17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="AZ11" s="23">
+        <f>[2]BNVFE!R17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BA11" s="23">
+        <f>[2]BNVFE!S17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BB11" s="23">
+        <f>[2]BNVFE!T17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BC11" s="23">
+        <f>[2]BNVFE!U17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BD11" s="23">
+        <f>[2]BNVFE!V17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BE11" s="23">
+        <f>[2]BNVFE!W17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BF11" s="23">
+        <f>[2]BNVFE!X17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BG11" s="23">
+        <f>[2]BNVFE!Y17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BH11" s="23">
+        <f>[2]BNVFE!Z17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BI11" s="23">
+        <f>[2]BNVFE!AA17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BJ11" s="23">
+        <f>[2]BNVFE!AB17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BK11" s="23">
+        <f>[2]BNVFE!AC17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BL11" s="23">
+        <f>[2]BNVFE!AD17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BM11" s="23">
+        <f>[2]BNVFE!AE17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BN11" s="23">
+        <f>[2]BNVFE!AF17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BO11" s="23">
+        <f>[2]BNVFE!AG17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BP11" s="23">
+        <f>[2]BNVFE!AH17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BQ11" s="23">
+        <f>[2]BNVFE!AI17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BR11" s="23">
+        <f>[2]BNVFE!AJ17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BS11" s="23">
+        <f>[2]BNVFE!AK17</f>
+        <v>1.9362141353943107E-4</v>
+      </c>
+      <c r="BT11" s="18"/>
+    </row>
+    <row r="12" spans="1:72">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18">
+        <f>TREND($AK12:$BS12,$AK$1:$BS$1,D$1)</f>
         <v>3.3209939763395591E-3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="18">
+        <f t="shared" si="5"/>
         <v>3.3814550029391821E-3</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F12" s="18">
+        <f>TREND($AK12:$BS12,$AK$1:$BS$1,F$1)</f>
         <v>3.441916029538819E-3</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G12" s="18">
+        <f t="shared" si="5"/>
         <v>3.5023770561384421E-3</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H12" s="18">
+        <f t="shared" si="5"/>
         <v>3.5628380827380651E-3</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
+        <f t="shared" si="5"/>
         <v>3.6232991093377021E-3</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J12" s="18">
+        <f t="shared" si="5"/>
         <v>3.6837601359373251E-3</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K12" s="18">
+        <f t="shared" si="5"/>
         <v>3.7442211625369481E-3</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L12" s="18">
+        <f t="shared" si="5"/>
         <v>3.8046821891365851E-3</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M12" s="18">
+        <f t="shared" si="5"/>
         <v>3.8651432157362081E-3</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N12" s="18">
+        <f t="shared" si="5"/>
         <v>3.925604242335845E-3</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O12" s="18">
+        <f t="shared" si="5"/>
         <v>3.9860652689354681E-3</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P12" s="18">
+        <f t="shared" si="5"/>
         <v>4.0465262955350911E-3</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q12" s="18">
+        <f t="shared" si="5"/>
         <v>4.1069873221347281E-3</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R12" s="18">
+        <f t="shared" si="5"/>
         <v>4.1674483487343511E-3</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S12" s="18">
+        <f t="shared" si="5"/>
         <v>4.2279093753339742E-3</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T12" s="18">
+        <f t="shared" si="5"/>
         <v>4.2883704019336111E-3</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U12" s="18">
+        <f t="shared" si="5"/>
         <v>4.3488314285332341E-3</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V12" s="18">
+        <f t="shared" si="5"/>
         <v>4.409292455132871E-3</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W12" s="18">
+        <f t="shared" si="5"/>
         <v>4.4697534817324941E-3</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X12" s="18">
+        <f t="shared" si="5"/>
         <v>4.5302145083321171E-3</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y12" s="18">
+        <f t="shared" si="5"/>
         <v>4.5906755349317541E-3</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="Z12" s="18">
+        <f t="shared" si="5"/>
         <v>4.6511365615313771E-3</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA12" s="18">
+        <f t="shared" si="5"/>
         <v>4.7115975881310002E-3</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB12" s="18">
+        <f t="shared" si="5"/>
         <v>4.7720586147306371E-3</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC12" s="18">
+        <f t="shared" si="5"/>
         <v>4.8325196413302601E-3</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD12" s="18">
+        <f t="shared" si="5"/>
         <v>4.8929806679298971E-3</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE12" s="18">
+        <f t="shared" si="5"/>
         <v>4.9534416945295201E-3</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF12" s="18">
+        <f t="shared" si="5"/>
         <v>5.0139027211291431E-3</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG12" s="18">
+        <f t="shared" si="5"/>
         <v>5.0743637477287801E-3</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH12" s="18">
+        <f t="shared" si="5"/>
         <v>5.1348247743284031E-3</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI12" s="18">
+        <f t="shared" si="5"/>
         <v>5.1952858009280262E-3</v>
       </c>
-      <c r="AJ11" s="16">
+      <c r="AJ12" s="16">
+        <f t="shared" si="6"/>
         <v>5.2557468275276631E-3</v>
       </c>
-      <c r="AK11">
+      <c r="AK12" s="24">
+        <f>[2]BNVFE!D18</f>
         <v>5.2992115229405527E-3</v>
       </c>
-      <c r="AL11">
+      <c r="AL12" s="23">
+        <f>[2]BNVFE!D18</f>
         <v>5.2992115229405527E-3</v>
       </c>
-      <c r="AM11">
+      <c r="AM12" s="23">
+        <f>[2]BNVFE!E18</f>
         <v>5.3934315680825738E-3</v>
       </c>
-      <c r="AN11">
+      <c r="AN12" s="23">
+        <f>[2]BNVFE!F18</f>
         <v>5.4328972597188054E-3</v>
       </c>
-      <c r="AO11">
+      <c r="AO12" s="23">
+        <f>[2]BNVFE!G18</f>
         <v>5.4639690719479918E-3</v>
       </c>
-      <c r="AP11">
+      <c r="AP12" s="23">
+        <f>[2]BNVFE!H18</f>
         <v>5.5418412974535475E-3</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ12" s="23">
+        <f>[2]BNVFE!I18</f>
         <v>5.6194390279456462E-3</v>
       </c>
-      <c r="AR11">
+      <c r="AR12" s="23">
+        <f>[2]BNVFE!J18</f>
         <v>5.6977290697036269E-3</v>
       </c>
-      <c r="AS11">
+      <c r="AS12" s="23">
+        <f>[2]BNVFE!K18</f>
         <v>5.7753683101031145E-3</v>
       </c>
-      <c r="AT11">
+      <c r="AT12" s="23">
+        <f>[2]BNVFE!L18</f>
         <v>5.8065339689778806E-3</v>
       </c>
-      <c r="AU11">
+      <c r="AU12" s="23">
+        <f>[2]BNVFE!M18</f>
         <v>5.9168077326028174E-3</v>
       </c>
-      <c r="AV11">
+      <c r="AV12" s="23">
+        <f>[2]BNVFE!N18</f>
         <v>6.0262008784596468E-3</v>
       </c>
-      <c r="AW11">
+      <c r="AW12" s="23">
+        <f>[2]BNVFE!O18</f>
         <v>6.1333911053254144E-3</v>
       </c>
-      <c r="AX11">
+      <c r="AX12" s="23">
+        <f>[2]BNVFE!P18</f>
         <v>6.23926005928913E-3</v>
       </c>
-      <c r="AY11">
+      <c r="AY12" s="23">
+        <f>[2]BNVFE!Q18</f>
         <v>6.2631866999947458E-3</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ12" s="23">
+        <f>[2]BNVFE!R18</f>
         <v>6.3166177586814537E-3</v>
       </c>
-      <c r="BA11">
+      <c r="BA12" s="23">
+        <f>[2]BNVFE!S18</f>
         <v>6.3698985412702644E-3</v>
       </c>
-      <c r="BB11">
+      <c r="BB12" s="23">
+        <f>[2]BNVFE!T18</f>
         <v>6.4221337603906021E-3</v>
       </c>
-      <c r="BC11">
+      <c r="BC12" s="23">
+        <f>[2]BNVFE!U18</f>
         <v>6.4770178768907465E-3</v>
       </c>
-      <c r="BD11">
+      <c r="BD12" s="23">
+        <f>[2]BNVFE!V18</f>
         <v>6.5040881848864238E-3</v>
       </c>
-      <c r="BE11">
+      <c r="BE12" s="23">
+        <f>[2]BNVFE!W18</f>
         <v>6.5657441588667436E-3</v>
       </c>
-      <c r="BF11">
+      <c r="BF12" s="23">
+        <f>[2]BNVFE!X18</f>
         <v>6.6279838592649453E-3</v>
       </c>
-      <c r="BG11">
+      <c r="BG12" s="23">
+        <f>[2]BNVFE!Y18</f>
         <v>6.6926091644649984E-3</v>
       </c>
-      <c r="BH11">
+      <c r="BH12" s="23">
+        <f>[2]BNVFE!Z18</f>
         <v>6.7592235851418906E-3</v>
       </c>
-      <c r="BI11">
+      <c r="BI12" s="23">
+        <f>[2]BNVFE!AA18</f>
         <v>6.8261740810624423E-3</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ12" s="23">
+        <f>[2]BNVFE!AB18</f>
         <v>6.8617594497521082E-3</v>
       </c>
-      <c r="BK11">
+      <c r="BK12" s="23">
+        <f>[2]BNVFE!AC18</f>
         <v>6.9004780853928341E-3</v>
       </c>
-      <c r="BL11">
+      <c r="BL12" s="23">
+        <f>[2]BNVFE!AD18</f>
         <v>6.9410482983891979E-3</v>
       </c>
-      <c r="BM11">
+      <c r="BM12" s="23">
+        <f>[2]BNVFE!AE18</f>
         <v>6.9822916342727305E-3</v>
       </c>
-      <c r="BN11">
+      <c r="BN12" s="23">
+        <f>[2]BNVFE!AF18</f>
         <v>7.0276191171519658E-3</v>
       </c>
-      <c r="BO11">
+      <c r="BO12" s="23">
+        <f>[2]BNVFE!AG18</f>
         <v>7.0718499244147234E-3</v>
       </c>
-      <c r="BP11">
+      <c r="BP12" s="23">
+        <f>[2]BNVFE!AH18</f>
         <v>7.1189794928731096E-3</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ12" s="23">
+        <f>[2]BNVFE!AI18</f>
         <v>7.1700377368293525E-3</v>
       </c>
-      <c r="BR11">
+      <c r="BR12" s="23">
+        <f>[2]BNVFE!AJ18</f>
         <v>7.221347583681044E-3</v>
       </c>
-      <c r="BS11">
+      <c r="BS12" s="23">
+        <f>[2]BNVFE!AK18</f>
         <v>7.2762043320700196E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:71">
-      <c r="A12" t="s">
+      <c r="BT12" s="18"/>
+    </row>
+    <row r="13" spans="1:72">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AF12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AG12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AH12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AI12" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AJ12" s="16">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AK12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AL12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AM12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AN12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AO12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AP12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AQ12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AR12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AS12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AT12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AU12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AV12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AW12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AX12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AY12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AZ12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BA12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BB12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BC12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BD12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BE12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BF12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BG12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BH12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BI12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BJ12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BK12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BL12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BM12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BN12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BO12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BP12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BQ12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BR12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BS12">
-        <v>1.5431879298095457E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -4126,153 +6338,411 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AB13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AC13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AD13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AE13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AF13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AG13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AH13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AI13" s="18">
+        <f t="shared" si="5"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AJ13" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AK13" s="24">
+        <f>[2]BNVFE!D19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AL13" s="23">
+        <f>[2]BNVFE!D19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AM13" s="23">
+        <f>[2]BNVFE!E19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AN13" s="23">
+        <f>[2]BNVFE!F19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AO13" s="23">
+        <f>[2]BNVFE!G19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AP13" s="23">
+        <f>[2]BNVFE!H19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AQ13" s="23">
+        <f>[2]BNVFE!I19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AR13" s="23">
+        <f>[2]BNVFE!J19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AS13" s="23">
+        <f>[2]BNVFE!K19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AT13" s="23">
+        <f>[2]BNVFE!L19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AU13" s="23">
+        <f>[2]BNVFE!M19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AV13" s="23">
+        <f>[2]BNVFE!N19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AW13" s="23">
+        <f>[2]BNVFE!O19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AX13" s="23">
+        <f>[2]BNVFE!P19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AY13" s="23">
+        <f>[2]BNVFE!Q19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AZ13" s="23">
+        <f>[2]BNVFE!R19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BA13" s="23">
+        <f>[2]BNVFE!S19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BB13" s="23">
+        <f>[2]BNVFE!T19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BC13" s="23">
+        <f>[2]BNVFE!U19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BD13" s="23">
+        <f>[2]BNVFE!V19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BE13" s="23">
+        <f>[2]BNVFE!W19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BF13" s="23">
+        <f>[2]BNVFE!X19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BG13" s="23">
+        <f>[2]BNVFE!Y19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BH13" s="23">
+        <f>[2]BNVFE!Z19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BI13" s="23">
+        <f>[2]BNVFE!AA19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BJ13" s="23">
+        <f>[2]BNVFE!AB19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BK13" s="23">
+        <f>[2]BNVFE!AC19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BL13" s="23">
+        <f>[2]BNVFE!AD19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BM13" s="23">
+        <f>[2]BNVFE!AE19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BN13" s="23">
+        <f>[2]BNVFE!AF19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BO13" s="23">
+        <f>[2]BNVFE!AG19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BP13" s="23">
+        <f>[2]BNVFE!AH19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BQ13" s="23">
+        <f>[2]BNVFE!AI19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BR13" s="23">
+        <f>[2]BNVFE!AJ19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BS13" s="23">
+        <f>[2]BNVFE!AK19</f>
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BT13" s="18"/>
+    </row>
+    <row r="14" spans="1:72" s="8" customFormat="1">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="18">
+        <f t="shared" ref="AA14:AI14" si="8">$AK14</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI14" s="18">
+        <f t="shared" si="8"/>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AJ13" s="16">
+      <c r="AJ14" s="16">
+        <f>$AK14</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AK13">
+      <c r="AK14" s="24">
+        <f>[2]BNVFE!D20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AL13">
+      <c r="AL14" s="23">
+        <f>[2]BNVFE!D20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AM13">
+      <c r="AM14" s="23">
+        <f>[2]BNVFE!E20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AN13">
+      <c r="AN14" s="23">
+        <f>[2]BNVFE!F20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AO13">
+      <c r="AO14" s="23">
+        <f>[2]BNVFE!G20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AP13">
+      <c r="AP14" s="23">
+        <f>[2]BNVFE!H20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ14" s="23">
+        <f>[2]BNVFE!I20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AR13">
+      <c r="AR14" s="23">
+        <f>[2]BNVFE!J20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AS13">
+      <c r="AS14" s="23">
+        <f>[2]BNVFE!K20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AT13">
+      <c r="AT14" s="23">
+        <f>[2]BNVFE!L20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AU13">
+      <c r="AU14" s="23">
+        <f>[2]BNVFE!M20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AV13">
+      <c r="AV14" s="23">
+        <f>[2]BNVFE!N20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AW13">
+      <c r="AW14" s="23">
+        <f>[2]BNVFE!O20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AX13">
+      <c r="AX14" s="23">
+        <f>[2]BNVFE!P20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AY13">
+      <c r="AY14" s="23">
+        <f>[2]BNVFE!Q20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ14" s="23">
+        <f>[2]BNVFE!R20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BA13">
+      <c r="BA14" s="23">
+        <f>[2]BNVFE!S20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BB13">
+      <c r="BB14" s="23">
+        <f>[2]BNVFE!T20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BC13">
+      <c r="BC14" s="23">
+        <f>[2]BNVFE!U20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BD13">
+      <c r="BD14" s="23">
+        <f>[2]BNVFE!V20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BE13">
+      <c r="BE14" s="23">
+        <f>[2]BNVFE!W20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BF13">
+      <c r="BF14" s="23">
+        <f>[2]BNVFE!X20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BG13">
+      <c r="BG14" s="23">
+        <f>[2]BNVFE!Y20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BH13">
+      <c r="BH14" s="23">
+        <f>[2]BNVFE!Z20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BI13">
+      <c r="BI14" s="23">
+        <f>[2]BNVFE!AA20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ14" s="23">
+        <f>[2]BNVFE!AB20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BK13">
+      <c r="BK14" s="23">
+        <f>[2]BNVFE!AC20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BL13">
+      <c r="BL14" s="23">
+        <f>[2]BNVFE!AD20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BM13">
+      <c r="BM14" s="23">
+        <f>[2]BNVFE!AE20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BN13">
+      <c r="BN14" s="23">
+        <f>[2]BNVFE!AF20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BO13">
+      <c r="BO14" s="23">
+        <f>[2]BNVFE!AG20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BP13">
+      <c r="BP14" s="23">
+        <f>[2]BNVFE!AH20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ14" s="23">
+        <f>[2]BNVFE!AI20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BR13">
+      <c r="BR14" s="23">
+        <f>[2]BNVFE!AJ20</f>
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BS13">
+      <c r="BS14" s="23">
+        <f>[2]BNVFE!AK20</f>
         <v>1.1883392852619099E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71">
-      <c r="A16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4766,7 +7236,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4904,8 +7374,8 @@
         <v>17</v>
       </c>
       <c r="B5" s="18">
-        <f>E5*'Calculations Etc'!B3</f>
-        <v>1.6815384794901323E-3</v>
+        <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!E22</f>
+        <v>2.1558990043642106E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4914,8 +7384,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!E22</f>
-        <v>2.4412212193692241E-3</v>
+        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!E22</f>
+        <v>1.0487527988911173E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4941,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>AVERAGE('BHNVFEAL data'!D10:AJ10)*'Calibration Adjustments'!E23</f>
+        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!E23</f>
         <v>1.9362141353943094E-4</v>
       </c>
       <c r="F6">
@@ -4967,7 +7437,7 @@
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!D24</f>
+        <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!D24</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="E7" s="11">
@@ -4979,7 +7449,7 @@
         <v>3.3970439560149579E-3</v>
       </c>
       <c r="G7" s="18">
-        <f>AVERAGE('BHNVFEAL data'!AA12:AJ12)*'Calibration Adjustments'!G24</f>
+        <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!G24</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="H7" s="11">
@@ -5149,18 +7619,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!E31</f>
+        <f>AVERAGE('BHNVFEAL data'!C10:AJ10)*'Calibration Adjustments'!E31</f>
         <v>7.0214683806076057E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!G31</f>
+        <f>AVERAGE('BHNVFEAL data'!C10:AJ10)*'Calibration Adjustments'!G31</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>AVERAGE('BHNVFEAL data'!D9:AK9)*'Calibration Adjustments'!H31</f>
+        <f>AVERAGE('BHNVFEAL data'!D10:AK10)*'Calibration Adjustments'!H31</f>
         <v>7.0214683806076057E-3</v>
       </c>
     </row>
@@ -5178,18 +7648,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!E32</f>
+        <f>AVERAGE('BHNVFEAL data'!D12:AJ12)*'Calibration Adjustments'!E32</f>
         <v>4.2883704019336085E-3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!G32</f>
+        <f>AVERAGE('BHNVFEAL data'!D12:AJ12)*'Calibration Adjustments'!G32</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>AVERAGE('BHNVFEAL data'!E11:AK11)*'Calibration Adjustments'!H32</f>
+        <f>AVERAGE('BHNVFEAL data'!E12:AK12)*'Calibration Adjustments'!H32</f>
         <v>4.3483163881942446E-3</v>
       </c>
     </row>
@@ -5206,7 +7676,7 @@
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!D33</f>
+        <f>AVERAGE('BHNVFEAL data'!AA14:AJ14)*'Calibration Adjustments'!D33</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="E7" s="11">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -37,7 +37,7 @@
     <definedName name="ti_tbl_69" localSheetId="6">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="109">
   <si>
     <t>Sources:</t>
   </si>
@@ -7582,10 +7582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT57"/>
+  <dimension ref="A1:BT58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8874,211 +8874,211 @@
         <v>42</v>
       </c>
       <c r="C8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="D8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="E8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="F8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="G8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="H8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="I8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="J8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="K8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="L8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="M8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="N8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="O8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="P8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Q8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="R8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="S8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="T8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="U8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="V8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="W8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="X8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Y8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="Z8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AA8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AB8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AC8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AD8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AE8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AF8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AG8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AH8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AI8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AJ8" s="21">
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="AK8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AL8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AM8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AN8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AO8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AP8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AQ8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AR8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AS8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AT8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AU8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AV8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AW8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AX8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AY8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="AZ8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BA8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BB8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BC8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BD8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BE8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BF8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BG8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BH8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BI8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BJ8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BK8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BL8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BM8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BN8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BO8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BP8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BQ8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BR8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BS8" s="23">
-        <v>2.1558990043642106E-3</v>
+        <v>1.9391498614175121E-2</v>
       </c>
       <c r="BT8" s="18"/>
     </row>
@@ -9090,211 +9090,211 @@
         <v>42</v>
       </c>
       <c r="C9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="D9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="E9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="F9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="G9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="H9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="I9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="J9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="K9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="L9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="M9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="N9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="O9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="P9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Q9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="R9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="S9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="T9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="U9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="V9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="W9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="X9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Y9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="Z9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AA9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AB9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AC9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AD9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AE9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AF9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AG9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AH9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AI9" s="18">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AJ9" s="16">
-        <v>1.0487527988911177E-2</v>
+        <v>1.0424816773970053E-2</v>
       </c>
       <c r="AK9" s="23">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AL9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AM9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AN9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AO9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AP9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AQ9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AR9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AS9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AT9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AU9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AV9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AW9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AX9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AY9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="AZ9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BA9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BB9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BC9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BD9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BE9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BF9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BG9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BH9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BI9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BJ9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BK9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BL9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BM9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BN9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BO9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BP9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BQ9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BR9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BS9" s="22">
-        <v>1.0487527988911182E-2</v>
+        <v>1.0424816773970049E-2</v>
       </c>
       <c r="BT9" s="18"/>
     </row>
@@ -9306,425 +9306,427 @@
         <v>43</v>
       </c>
       <c r="C10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="D10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="E10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="F10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="G10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="H10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="I10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="J10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="K10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="L10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="M10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="N10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="O10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="P10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Q10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="R10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="S10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="T10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="U10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="V10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="W10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="X10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Y10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="Z10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AA10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AB10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AC10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AD10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AE10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AF10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AG10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AH10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AI10" s="18">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AJ10" s="16">
-        <v>7.0214683806076091E-3</v>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="AK10" s="23">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AL10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AM10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AN10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AO10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AP10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AQ10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AR10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AS10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AT10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AU10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AV10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AW10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AX10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AY10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="AZ10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BA10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BB10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BC10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BD10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BE10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BF10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BG10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BH10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BI10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BJ10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BK10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BL10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BM10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BN10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BO10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BP10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BQ10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BR10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BS10" s="22">
-        <v>7.0214683806076135E-3</v>
+        <v>1.3495815062532838E-2</v>
       </c>
       <c r="BT10" s="18"/>
     </row>
     <row r="11" spans="1:72">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3.7455550122320706E-3</v>
+      </c>
       <c r="D11" s="18">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="E11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="F11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="G11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="H11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="I11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="J11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="K11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="L11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="M11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="N11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="O11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="P11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Q11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="R11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="S11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="T11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="U11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="V11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="W11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="X11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Y11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="Z11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AA11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AB11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AC11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AD11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AE11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AF11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AG11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AH11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AI11" s="18">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AJ11" s="16">
-        <v>1.9362141353943097E-4</v>
+        <v>3.7455550122320706E-3</v>
       </c>
       <c r="AK11" s="23">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AL11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AM11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AN11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AO11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AP11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AQ11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AR11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AS11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AT11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AU11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AV11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AW11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AX11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AY11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="AZ11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BA11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BB11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BC11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BD11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BE11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BF11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BG11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BH11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BI11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BJ11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BK11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BL11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BM11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BN11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BO11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BP11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BQ11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BR11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BS11" s="22">
-        <v>1.9362141353943107E-4</v>
+        <v>3.7455550122320676E-3</v>
       </c>
       <c r="BT11" s="18"/>
     </row>
@@ -9733,407 +9735,453 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18">
-        <v>3.3209939763395591E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="E12" s="18">
-        <v>3.3814550029391821E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="F12" s="18">
-        <v>3.441916029538819E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="G12" s="18">
-        <v>3.5023770561384421E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="H12" s="18">
-        <v>3.5628380827380651E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="I12" s="18">
-        <v>3.6232991093377021E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="J12" s="18">
-        <v>3.6837601359373251E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="K12" s="18">
-        <v>3.7442211625369481E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="L12" s="18">
-        <v>3.8046821891365851E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="M12" s="18">
-        <v>3.8651432157362081E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="N12" s="18">
-        <v>3.925604242335845E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="O12" s="18">
-        <v>3.9860652689354681E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="P12" s="18">
-        <v>4.0465262955350911E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Q12" s="18">
-        <v>4.1069873221347281E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="R12" s="18">
-        <v>4.1674483487343511E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="S12" s="18">
-        <v>4.2279093753339742E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="T12" s="18">
-        <v>4.2883704019336111E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="U12" s="18">
-        <v>4.3488314285332341E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="V12" s="18">
-        <v>4.409292455132871E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="W12" s="18">
-        <v>4.4697534817324941E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="X12" s="18">
-        <v>4.5302145083321171E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Y12" s="18">
-        <v>4.5906755349317541E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="Z12" s="18">
-        <v>4.6511365615313771E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AA12" s="18">
-        <v>4.7115975881310002E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AB12" s="18">
-        <v>4.7720586147306371E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AC12" s="18">
-        <v>4.8325196413302601E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AD12" s="18">
-        <v>4.8929806679298971E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AE12" s="18">
-        <v>4.9534416945295201E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AF12" s="18">
-        <v>5.0139027211291431E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AG12" s="18">
-        <v>5.0743637477287801E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AH12" s="18">
-        <v>5.1348247743284031E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AI12" s="18">
-        <v>5.1952858009280262E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AJ12" s="16">
-        <v>5.2557468275276631E-3</v>
+        <v>1.9362141353943097E-4</v>
       </c>
       <c r="AK12" s="23">
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AL12" s="22">
-        <v>5.2992115229405527E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AM12" s="22">
-        <v>5.3934315680825738E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AN12" s="22">
-        <v>5.4328972597188054E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AO12" s="22">
-        <v>5.4639690719479918E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AP12" s="22">
-        <v>5.5418412974535475E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AQ12" s="22">
-        <v>5.6194390279456462E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AR12" s="22">
-        <v>5.6977290697036269E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AS12" s="22">
-        <v>5.7753683101031145E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AT12" s="22">
-        <v>5.8065339689778806E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AU12" s="22">
-        <v>5.9168077326028174E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AV12" s="22">
-        <v>6.0262008784596468E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AW12" s="22">
-        <v>6.1333911053254144E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AX12" s="22">
-        <v>6.23926005928913E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AY12" s="22">
-        <v>6.2631866999947458E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="AZ12" s="22">
-        <v>6.3166177586814537E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BA12" s="22">
-        <v>6.3698985412702644E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BB12" s="22">
-        <v>6.4221337603906021E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BC12" s="22">
-        <v>6.4770178768907465E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BD12" s="22">
-        <v>6.5040881848864238E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BE12" s="22">
-        <v>6.5657441588667436E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BF12" s="22">
-        <v>6.6279838592649453E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BG12" s="22">
-        <v>6.6926091644649984E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BH12" s="22">
-        <v>6.7592235851418906E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BI12" s="22">
-        <v>6.8261740810624423E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BJ12" s="22">
-        <v>6.8617594497521082E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BK12" s="22">
-        <v>6.9004780853928341E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BL12" s="22">
-        <v>6.9410482983891979E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BM12" s="22">
-        <v>6.9822916342727305E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BN12" s="22">
-        <v>7.0276191171519658E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BO12" s="22">
-        <v>7.0718499244147234E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BP12" s="22">
-        <v>7.1189794928731096E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BQ12" s="22">
-        <v>7.1700377368293525E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BR12" s="22">
-        <v>7.221347583681044E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BS12" s="22">
-        <v>7.2762043320700196E-3</v>
+        <v>1.9362141353943107E-4</v>
       </c>
       <c r="BT12" s="18"/>
     </row>
     <row r="13" spans="1:72">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18">
+        <v>3.3209939763395591E-3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>3.3814550029391821E-3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.441916029538819E-3</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3.5023770561384421E-3</v>
+      </c>
+      <c r="H13" s="18">
+        <v>3.5628380827380651E-3</v>
+      </c>
+      <c r="I13" s="18">
+        <v>3.6232991093377021E-3</v>
+      </c>
+      <c r="J13" s="18">
+        <v>3.6837601359373251E-3</v>
+      </c>
+      <c r="K13" s="18">
+        <v>3.7442211625369481E-3</v>
+      </c>
+      <c r="L13" s="18">
+        <v>3.8046821891365851E-3</v>
+      </c>
+      <c r="M13" s="18">
+        <v>3.8651432157362081E-3</v>
+      </c>
+      <c r="N13" s="18">
+        <v>3.925604242335845E-3</v>
+      </c>
+      <c r="O13" s="18">
+        <v>3.9860652689354681E-3</v>
+      </c>
+      <c r="P13" s="18">
+        <v>4.0465262955350911E-3</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>4.1069873221347281E-3</v>
+      </c>
+      <c r="R13" s="18">
+        <v>4.1674483487343511E-3</v>
+      </c>
+      <c r="S13" s="18">
+        <v>4.2279093753339742E-3</v>
+      </c>
+      <c r="T13" s="18">
+        <v>4.2883704019336111E-3</v>
+      </c>
+      <c r="U13" s="18">
+        <v>4.3488314285332341E-3</v>
+      </c>
+      <c r="V13" s="18">
+        <v>4.409292455132871E-3</v>
+      </c>
+      <c r="W13" s="18">
+        <v>4.4697534817324941E-3</v>
+      </c>
+      <c r="X13" s="18">
+        <v>4.5302145083321171E-3</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>4.5906755349317541E-3</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>4.6511365615313771E-3</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>4.7115975881310002E-3</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>4.7720586147306371E-3</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>4.8325196413302601E-3</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>4.8929806679298971E-3</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>4.9534416945295201E-3</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>5.0139027211291431E-3</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>5.0743637477287801E-3</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>5.1348247743284031E-3</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>5.1952858009280262E-3</v>
+      </c>
+      <c r="AJ13" s="16">
+        <v>5.2557468275276631E-3</v>
+      </c>
+      <c r="AK13" s="23">
+        <v>5.2992115229405527E-3</v>
+      </c>
+      <c r="AL13" s="22">
+        <v>5.2992115229405527E-3</v>
+      </c>
+      <c r="AM13" s="22">
+        <v>5.3934315680825738E-3</v>
+      </c>
+      <c r="AN13" s="22">
+        <v>5.4328972597188054E-3</v>
+      </c>
+      <c r="AO13" s="22">
+        <v>5.4639690719479918E-3</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>5.5418412974535475E-3</v>
+      </c>
+      <c r="AQ13" s="22">
+        <v>5.6194390279456462E-3</v>
+      </c>
+      <c r="AR13" s="22">
+        <v>5.6977290697036269E-3</v>
+      </c>
+      <c r="AS13" s="22">
+        <v>5.7753683101031145E-3</v>
+      </c>
+      <c r="AT13" s="22">
+        <v>5.8065339689778806E-3</v>
+      </c>
+      <c r="AU13" s="22">
+        <v>5.9168077326028174E-3</v>
+      </c>
+      <c r="AV13" s="22">
+        <v>6.0262008784596468E-3</v>
+      </c>
+      <c r="AW13" s="22">
+        <v>6.1333911053254144E-3</v>
+      </c>
+      <c r="AX13" s="22">
+        <v>6.23926005928913E-3</v>
+      </c>
+      <c r="AY13" s="22">
+        <v>6.2631866999947458E-3</v>
+      </c>
+      <c r="AZ13" s="22">
+        <v>6.3166177586814537E-3</v>
+      </c>
+      <c r="BA13" s="22">
+        <v>6.3698985412702644E-3</v>
+      </c>
+      <c r="BB13" s="22">
+        <v>6.4221337603906021E-3</v>
+      </c>
+      <c r="BC13" s="22">
+        <v>6.4770178768907465E-3</v>
+      </c>
+      <c r="BD13" s="22">
+        <v>6.5040881848864238E-3</v>
+      </c>
+      <c r="BE13" s="22">
+        <v>6.5657441588667436E-3</v>
+      </c>
+      <c r="BF13" s="22">
+        <v>6.6279838592649453E-3</v>
+      </c>
+      <c r="BG13" s="22">
+        <v>6.6926091644649984E-3</v>
+      </c>
+      <c r="BH13" s="22">
+        <v>6.7592235851418906E-3</v>
+      </c>
+      <c r="BI13" s="22">
+        <v>6.8261740810624423E-3</v>
+      </c>
+      <c r="BJ13" s="22">
+        <v>6.8617594497521082E-3</v>
+      </c>
+      <c r="BK13" s="22">
+        <v>6.9004780853928341E-3</v>
+      </c>
+      <c r="BL13" s="22">
+        <v>6.9410482983891979E-3</v>
+      </c>
+      <c r="BM13" s="22">
+        <v>6.9822916342727305E-3</v>
+      </c>
+      <c r="BN13" s="22">
+        <v>7.0276191171519658E-3</v>
+      </c>
+      <c r="BO13" s="22">
+        <v>7.0718499244147234E-3</v>
+      </c>
+      <c r="BP13" s="22">
+        <v>7.1189794928731096E-3</v>
+      </c>
+      <c r="BQ13" s="22">
+        <v>7.1700377368293525E-3</v>
+      </c>
+      <c r="BR13" s="22">
+        <v>7.221347583681044E-3</v>
+      </c>
+      <c r="BS13" s="22">
+        <v>7.2762043320700196E-3</v>
+      </c>
+      <c r="BT13" s="18"/>
+    </row>
+    <row r="14" spans="1:72">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AC13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AE13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AF13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AG13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AH13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AI13" s="18">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AJ13" s="16">
-        <v>1.5431879298095448E-3</v>
-      </c>
-      <c r="AK13" s="23">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AL13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AM13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AN13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AO13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AP13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AQ13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AR13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AS13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AT13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AU13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AV13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AW13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AX13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AY13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="AZ13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BA13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BB13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BC13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BD13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BE13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BF13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BG13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BH13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BI13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BJ13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BK13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BL13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BM13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BN13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BO13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BP13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BQ13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BR13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BS13" s="22">
-        <v>1.5431879298095457E-3</v>
-      </c>
-      <c r="BT13" s="18"/>
-    </row>
-    <row r="14" spans="1:72" s="8" customFormat="1">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
@@ -10142,224 +10190,372 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AF14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AG14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AH14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AI14" s="18">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AJ14" s="16">
+        <v>1.5431879298095448E-3</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AL14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AM14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AN14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AO14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AP14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AQ14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AR14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AS14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AT14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AU14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AV14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AW14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AX14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AY14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BC14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BD14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BE14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BF14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BG14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BH14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BI14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BJ14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BK14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BL14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BM14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BN14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BO14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BP14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BQ14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BR14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BS14" s="22">
+        <v>1.5431879298095457E-3</v>
+      </c>
+      <c r="BT14" s="18"/>
+    </row>
+    <row r="15" spans="1:72" s="8" customFormat="1">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AC15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AE15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AF15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AH14" s="18">
+      <c r="AH15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AI15" s="18">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AJ14" s="16">
+      <c r="AJ15" s="16">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AK14" s="23">
+      <c r="AK15" s="23">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AL14" s="22">
+      <c r="AL15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AM14" s="22">
+      <c r="AM15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AN14" s="22">
+      <c r="AN15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AO14" s="22">
+      <c r="AO15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AP14" s="22">
+      <c r="AP15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AQ14" s="22">
+      <c r="AQ15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AR14" s="22">
+      <c r="AR15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AS14" s="22">
+      <c r="AS15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AT14" s="22">
+      <c r="AT15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AU14" s="22">
+      <c r="AU15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AV14" s="22">
+      <c r="AV15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AW14" s="22">
+      <c r="AW15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AX14" s="22">
+      <c r="AX15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AY14" s="22">
+      <c r="AY15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="AZ14" s="22">
+      <c r="AZ15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BA14" s="22">
+      <c r="BA15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BB14" s="22">
+      <c r="BB15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BC14" s="22">
+      <c r="BC15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BD14" s="22">
+      <c r="BD15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BE14" s="22">
+      <c r="BE15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BF14" s="22">
+      <c r="BF15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BG14" s="22">
+      <c r="BG15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BH14" s="22">
+      <c r="BH15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BI14" s="22">
+      <c r="BI15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BJ14" s="22">
+      <c r="BJ15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BK14" s="22">
+      <c r="BK15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BL14" s="22">
+      <c r="BL15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BM14" s="22">
+      <c r="BM15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BN14" s="22">
+      <c r="BN15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BO14" s="22">
+      <c r="BO15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BP14" s="22">
+      <c r="BP15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BQ14" s="22">
+      <c r="BQ15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BR14" s="22">
+      <c r="BR15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
-      <c r="BS14" s="22">
+      <c r="BS15" s="22">
         <v>1.1883392852619099E-3</v>
       </c>
     </row>
-    <row r="47" spans="3:8">
-      <c r="C47" t="s">
+    <row r="48" spans="3:8">
+      <c r="C48" t="s">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>101</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>102</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>103</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>104</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48">
-        <v>2021</v>
-      </c>
-      <c r="D48">
-        <v>20.709724091851811</v>
-      </c>
-      <c r="E48">
-        <v>1560.8681637371849</v>
-      </c>
-      <c r="F48">
-        <v>411.91631433310613</v>
-      </c>
-      <c r="G48">
-        <v>2.4276775772258579E-3</v>
-      </c>
-      <c r="H48">
-        <v>1.5084926598642038E-3</v>
       </c>
     </row>
     <row r="49" spans="3:48">
       <c r="C49">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D49">
-        <v>18.004733712284658</v>
+        <v>20.709724091851811</v>
       </c>
       <c r="E49">
-        <v>1795.3694584606365</v>
+        <v>1560.8681637371849</v>
       </c>
       <c r="F49">
-        <v>473.80168766120875</v>
+        <v>411.91631433310613</v>
       </c>
       <c r="G49">
-        <v>2.1105876699937984E-3</v>
+        <v>2.4276775772258579E-3</v>
       </c>
       <c r="H49">
-        <v>1.3114616364433857E-3</v>
+        <v>1.5084926598642038E-3</v>
       </c>
     </row>
     <row r="50" spans="3:48">
       <c r="C50">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D50">
-        <v>17.211393460387786</v>
+        <v>18.004733712284658</v>
       </c>
       <c r="E50">
-        <v>1878.1250390416772</v>
+        <v>1795.3694584606365</v>
       </c>
       <c r="F50">
-        <v>495.64105535118767</v>
+        <v>473.80168766120875</v>
       </c>
       <c r="G50">
-        <v>2.0175891185839068E-3</v>
+        <v>2.1105876699937984E-3</v>
       </c>
       <c r="H50">
-        <v>1.2536748720493537E-3</v>
+        <v>1.3114616364433857E-3</v>
       </c>
     </row>
     <row r="51" spans="3:48">
       <c r="C51">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D51">
         <v>17.211393460387786</v>
@@ -10379,338 +10575,358 @@
     </row>
     <row r="52" spans="3:48">
       <c r="C52">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D52">
-        <v>16.96226746103957</v>
+        <v>17.211393460387786</v>
       </c>
       <c r="E52">
-        <v>1905.7091918282579</v>
+        <v>1878.1250390416772</v>
       </c>
       <c r="F52">
-        <v>502.92056992764282</v>
+        <v>495.64105535118767</v>
       </c>
       <c r="G52">
-        <v>1.9883855618470208E-3</v>
+        <v>2.0175891185839068E-3</v>
       </c>
       <c r="H52">
-        <v>1.2355285780798469E-3</v>
+        <v>1.2536748720493537E-3</v>
       </c>
     </row>
     <row r="53" spans="3:48">
       <c r="C53">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D53">
-        <v>16.601821590736861</v>
+        <v>16.96226746103957</v>
       </c>
       <c r="E53">
-        <v>1947.0844713081717</v>
+        <v>1905.7091918282579</v>
       </c>
       <c r="F53">
-        <v>513.83959116455617</v>
+        <v>502.92056992764282</v>
       </c>
       <c r="G53">
-        <v>1.9461326398256297E-3</v>
+        <v>1.9883855618470208E-3</v>
       </c>
       <c r="H53">
-        <v>1.2092737642919642E-3</v>
+        <v>1.2355285780798469E-3</v>
       </c>
     </row>
     <row r="54" spans="3:48">
       <c r="C54">
+        <v>2009</v>
+      </c>
+      <c r="D54">
+        <v>16.601821590736861</v>
+      </c>
+      <c r="E54">
+        <v>1947.0844713081717</v>
+      </c>
+      <c r="F54">
+        <v>513.83959116455617</v>
+      </c>
+      <c r="G54">
+        <v>1.9461326398256297E-3</v>
+      </c>
+      <c r="H54">
+        <v>1.2092737642919642E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:48">
+      <c r="C55">
         <v>2006</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>15.301305075439725</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>2112.5746369594244</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>557.51278578608299</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>1.7936808365569912E-3</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>1.1145443700877325E-3</v>
       </c>
     </row>
-    <row r="56" spans="3:48">
-      <c r="D56">
+    <row r="57" spans="3:48">
+      <c r="D57">
         <v>2006</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>2007</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>2008</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>2009</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <v>2010</v>
       </c>
-      <c r="I56">
+      <c r="I57">
         <v>2011</v>
       </c>
-      <c r="J56">
+      <c r="J57">
         <v>2012</v>
       </c>
-      <c r="K56">
+      <c r="K57">
         <v>2013</v>
       </c>
-      <c r="L56">
+      <c r="L57">
         <v>2014</v>
       </c>
-      <c r="M56">
+      <c r="M57">
         <v>2015</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <v>2016</v>
       </c>
-      <c r="O56">
+      <c r="O57">
         <v>2017</v>
       </c>
-      <c r="P56">
+      <c r="P57">
         <v>2018</v>
       </c>
-      <c r="Q56">
+      <c r="Q57">
         <v>2019</v>
       </c>
-      <c r="R56">
+      <c r="R57">
         <v>2020</v>
       </c>
-      <c r="S56">
+      <c r="S57">
         <v>2021</v>
       </c>
-      <c r="T56">
+      <c r="T57">
         <v>2022</v>
       </c>
-      <c r="U56">
+      <c r="U57">
         <v>2023</v>
       </c>
-      <c r="V56">
+      <c r="V57">
         <v>2024</v>
       </c>
-      <c r="W56">
+      <c r="W57">
         <v>2025</v>
       </c>
-      <c r="X56">
+      <c r="X57">
         <v>2026</v>
       </c>
-      <c r="Y56">
+      <c r="Y57">
         <v>2027</v>
       </c>
-      <c r="Z56">
+      <c r="Z57">
         <v>2028</v>
       </c>
-      <c r="AA56">
+      <c r="AA57">
         <v>2029</v>
       </c>
-      <c r="AB56">
+      <c r="AB57">
         <v>2030</v>
       </c>
-      <c r="AC56">
+      <c r="AC57">
         <v>2031</v>
       </c>
-      <c r="AD56">
+      <c r="AD57">
         <v>2032</v>
       </c>
-      <c r="AE56">
+      <c r="AE57">
         <v>2033</v>
       </c>
-      <c r="AF56">
+      <c r="AF57">
         <v>2034</v>
       </c>
-      <c r="AG56">
+      <c r="AG57">
         <v>2035</v>
       </c>
-      <c r="AH56">
+      <c r="AH57">
         <v>2036</v>
       </c>
-      <c r="AI56">
+      <c r="AI57">
         <v>2037</v>
       </c>
-      <c r="AJ56">
+      <c r="AJ57">
         <v>2038</v>
       </c>
-      <c r="AK56">
+      <c r="AK57">
         <v>2039</v>
       </c>
-      <c r="AL56">
+      <c r="AL57">
         <v>2040</v>
       </c>
-      <c r="AM56">
+      <c r="AM57">
         <v>2041</v>
       </c>
-      <c r="AN56">
+      <c r="AN57">
         <v>2042</v>
       </c>
-      <c r="AO56">
+      <c r="AO57">
         <v>2043</v>
       </c>
-      <c r="AP56">
+      <c r="AP57">
         <v>2044</v>
       </c>
-      <c r="AQ56">
+      <c r="AQ57">
         <v>2045</v>
       </c>
-      <c r="AR56">
+      <c r="AR57">
         <v>2046</v>
       </c>
-      <c r="AS56">
+      <c r="AS57">
         <v>2047</v>
       </c>
-      <c r="AT56">
+      <c r="AT57">
         <v>2048</v>
       </c>
-      <c r="AU56">
+      <c r="AU57">
         <v>2049</v>
       </c>
-      <c r="AV56">
+      <c r="AV57">
         <v>2050</v>
       </c>
     </row>
-    <row r="57" spans="3:48">
-      <c r="C57" t="s">
+    <row r="58" spans="3:48">
+      <c r="C58" t="s">
         <v>106</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>6.5405985853042581E-4</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>6.7259020923837731E-4</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>6.9112055994632882E-4</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>7.0965091065427772E-4</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>7.2505830066289041E-4</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>7.3570728224234326E-4</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>7.3570728224234272E-4</v>
       </c>
-      <c r="K57">
+      <c r="K58">
         <v>7.4418518674728568E-4</v>
       </c>
-      <c r="L57">
+      <c r="L58">
         <v>7.5266309125222516E-4</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>7.6114099575716465E-4</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>7.6961890026210566E-4</v>
       </c>
-      <c r="O57">
+      <c r="O58">
         <v>7.9274406006073217E-4</v>
       </c>
-      <c r="P57">
+      <c r="P58">
         <v>8.1586921985937061E-4</v>
       </c>
-      <c r="Q57">
+      <c r="Q58">
         <v>8.3899437965800211E-4</v>
       </c>
-      <c r="R57">
+      <c r="R58">
         <v>8.6211953945663361E-4</v>
       </c>
-      <c r="S57">
+      <c r="S58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="T57">
+      <c r="T58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="U57">
+      <c r="U58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="V57">
+      <c r="V58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="W57">
+      <c r="W58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="X57">
+      <c r="X58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Y57">
+      <c r="Y58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="Z57">
+      <c r="Z58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AA57">
+      <c r="AA58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AB57">
+      <c r="AB58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AC57">
+      <c r="AC58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AD57">
+      <c r="AD58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AE57">
+      <c r="AE58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AF57">
+      <c r="AF58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AG57">
+      <c r="AG58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AH57">
+      <c r="AH58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AI57">
+      <c r="AI58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AJ57">
+      <c r="AJ58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AK57">
+      <c r="AK58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AL57">
+      <c r="AL58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AM57">
+      <c r="AM58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AN57">
+      <c r="AN58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AO57">
+      <c r="AO58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AP57">
+      <c r="AP58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AQ57">
+      <c r="AQ58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AR57">
+      <c r="AR58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AS57">
+      <c r="AS58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AT57">
+      <c r="AT58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AU57">
+      <c r="AU58">
         <v>8.8524469925526836E-4</v>
       </c>
-      <c r="AV57">
+      <c r="AV58">
         <v>8.8524469925526836E-4</v>
       </c>
     </row>
@@ -11343,7 +11559,7 @@
       </c>
       <c r="B5" s="18">
         <f>AVERAGE('BHNVFEAL data'!C8:AJ8)*'Calibration Adjustments'!E22</f>
-        <v>2.1558990043642106E-3</v>
+        <v>1.939149861417511E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11353,7 +11569,7 @@
       </c>
       <c r="E5" s="18">
         <f>AVERAGE('BHNVFEAL data'!C9:AJ9)*'Calibration Adjustments'!E22</f>
-        <v>1.0487527988911173E-2</v>
+        <v>1.0424816773970056E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11379,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>AVERAGE('BHNVFEAL data'!D11:AJ11)*'Calibration Adjustments'!E23</f>
+        <f>AVERAGE('BHNVFEAL data'!D12:AJ12)*'Calibration Adjustments'!E23</f>
         <v>1.9362141353943094E-4</v>
       </c>
       <c r="F6">
@@ -11405,7 +11621,7 @@
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!D24</f>
+        <f>AVERAGE('BHNVFEAL data'!AA14:AJ14)*'Calibration Adjustments'!D24</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="E7" s="11">
@@ -11417,7 +11633,7 @@
         <v>3.3970439560149579E-3</v>
       </c>
       <c r="G7" s="18">
-        <f>AVERAGE('BHNVFEAL data'!AA13:AJ13)*'Calibration Adjustments'!G24</f>
+        <f>AVERAGE('BHNVFEAL data'!AA14:AJ14)*'Calibration Adjustments'!G24</f>
         <v>1.5431879298095448E-3</v>
       </c>
       <c r="H7" s="11">
@@ -11441,7 +11657,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11580,8 +11796,8 @@
         <v>17</v>
       </c>
       <c r="B5" s="18">
-        <f>E5*'Calculations Etc'!B3</f>
-        <v>4.8364601990333661E-3</v>
+        <f>AVERAGE('BHNVFEAL data'!C10:AJ10)*'Calibration Adjustments'!B31</f>
+        <v>1.3495815062532836E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11590,19 +11806,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <f>AVERAGE('BHNVFEAL data'!C10:AJ10)*'Calibration Adjustments'!E31</f>
-        <v>7.0214683806076057E-3</v>
+        <f>AVERAGE('BHNVFEAL data'!C11:AJ11)*'Calibration Adjustments'!E31</f>
+        <v>3.7455550122320732E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <f>AVERAGE('BHNVFEAL data'!C10:AJ10)*'Calibration Adjustments'!G31</f>
+        <f>AVERAGE('BHNVFEAL data'!C11:AJ11)*'Calibration Adjustments'!G31</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>AVERAGE('BHNVFEAL data'!D10:AK10)*'Calibration Adjustments'!H31</f>
-        <v>7.0214683806076057E-3</v>
+        <f>AVERAGE('BHNVFEAL data'!D11:AK11)*'Calibration Adjustments'!H31</f>
+        <v>3.7455550122320732E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11619,18 +11835,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>AVERAGE('BHNVFEAL data'!D12:AJ12)*'Calibration Adjustments'!E32</f>
+        <f>AVERAGE('BHNVFEAL data'!D13:AJ13)*'Calibration Adjustments'!E32</f>
         <v>4.2883704019336085E-3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <f>AVERAGE('BHNVFEAL data'!D12:AJ12)*'Calibration Adjustments'!G32</f>
+        <f>AVERAGE('BHNVFEAL data'!D13:AJ13)*'Calibration Adjustments'!G32</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>AVERAGE('BHNVFEAL data'!E12:AK12)*'Calibration Adjustments'!H32</f>
+        <f>AVERAGE('BHNVFEAL data'!E13:AK13)*'Calibration Adjustments'!H32</f>
         <v>4.3483163881942446E-3</v>
       </c>
     </row>
@@ -11647,7 +11863,7 @@
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>AVERAGE('BHNVFEAL data'!AA14:AJ14)*'Calibration Adjustments'!D33</f>
+        <f>AVERAGE('BHNVFEAL data'!AA15:AJ15)*'Calibration Adjustments'!D33</f>
         <v>1.1883392852619099E-3</v>
       </c>
       <c r="E7" s="11">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AB9D6-C198-491C-89A7-68CE741EBB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,12 +38,15 @@
     <definedName name="ti_tbl_69" localSheetId="6">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -382,14 +386,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="###0.00_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1069,33 +1073,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1227,7 +1231,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1283,14 +1287,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1310,160 +1314,160 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="153"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1635,6 +1639,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1670,6 +1691,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1845,17 +1883,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2000,17 +2038,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2343,14 +2381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -7581,16 +7619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BT58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -10936,22 +10974,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -11413,7 +11451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11423,18 +11461,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="43.2">
       <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
@@ -11650,7 +11688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11660,17 +11698,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="8" width="16.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="43.2">
       <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
